--- a/設計書/02_基本設計（外部設計）/画面／機能一覧.xlsx
+++ b/設計書/02_基本設計（外部設計）/画面／機能一覧.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
   <si>
     <t>プロジェクト</t>
   </si>
@@ -393,6 +393,26 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>DM003</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>利用者情報変更画面</t>
+    <rPh sb="0" eb="3">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -1237,6 +1257,171 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1249,173 +1434,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1744,7 +1764,7 @@
   </sheetPr>
   <dimension ref="A1:AZ28"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G40" sqref="G40"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -1756,201 +1776,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="54" t="str">
+      <c r="A1" s="109" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>改訂履歴</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="58" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="59" t="str">
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="113" t="str">
         <f>設定情報!$C$2</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="58" t="s">
+      <c r="T1" s="113"/>
+      <c r="U1" s="113"/>
+      <c r="V1" s="113"/>
+      <c r="W1" s="113"/>
+      <c r="X1" s="113"/>
+      <c r="Y1" s="113"/>
+      <c r="Z1" s="113"/>
+      <c r="AA1" s="113"/>
+      <c r="AB1" s="113"/>
+      <c r="AC1" s="113"/>
+      <c r="AD1" s="113"/>
+      <c r="AE1" s="113"/>
+      <c r="AF1" s="113"/>
+      <c r="AG1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="58"/>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="58"/>
-      <c r="AL1" s="58"/>
-      <c r="AM1" s="58" t="s">
+      <c r="AH1" s="98"/>
+      <c r="AI1" s="98"/>
+      <c r="AJ1" s="98"/>
+      <c r="AK1" s="98"/>
+      <c r="AL1" s="98"/>
+      <c r="AM1" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="58"/>
-      <c r="AO1" s="58"/>
-      <c r="AP1" s="58"/>
-      <c r="AQ1" s="58"/>
-      <c r="AR1" s="58"/>
-      <c r="AS1" s="58" t="s">
+      <c r="AN1" s="98"/>
+      <c r="AO1" s="98"/>
+      <c r="AP1" s="98"/>
+      <c r="AQ1" s="98"/>
+      <c r="AR1" s="98"/>
+      <c r="AS1" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="AT1" s="58"/>
-      <c r="AU1" s="58"/>
-      <c r="AV1" s="58"/>
-      <c r="AW1" s="58"/>
-      <c r="AX1" s="58" t="s">
+      <c r="AT1" s="98"/>
+      <c r="AU1" s="98"/>
+      <c r="AV1" s="98"/>
+      <c r="AW1" s="98"/>
+      <c r="AX1" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="AY1" s="58"/>
-      <c r="AZ1" s="60"/>
+      <c r="AY1" s="98"/>
+      <c r="AZ1" s="99"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="56"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="61" t="s">
+      <c r="A2" s="111"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="62" t="str">
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="101" t="str">
         <f>設定情報!$C$3</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="62"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="63">
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="101"/>
+      <c r="X2" s="101"/>
+      <c r="Y2" s="101"/>
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="101"/>
+      <c r="AB2" s="101"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="101"/>
+      <c r="AG2" s="102">
         <v>42591</v>
       </c>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="65" t="s">
+      <c r="AH2" s="102"/>
+      <c r="AI2" s="102"/>
+      <c r="AJ2" s="102"/>
+      <c r="AK2" s="102"/>
+      <c r="AL2" s="102"/>
+      <c r="AM2" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="AN2" s="62"/>
-      <c r="AO2" s="62"/>
-      <c r="AP2" s="62"/>
-      <c r="AQ2" s="62"/>
-      <c r="AR2" s="62"/>
-      <c r="AS2" s="67"/>
-      <c r="AT2" s="67"/>
-      <c r="AU2" s="67"/>
-      <c r="AV2" s="67"/>
-      <c r="AW2" s="67"/>
-      <c r="AX2" s="62"/>
-      <c r="AY2" s="62"/>
-      <c r="AZ2" s="69"/>
+      <c r="AN2" s="101"/>
+      <c r="AO2" s="101"/>
+      <c r="AP2" s="101"/>
+      <c r="AQ2" s="101"/>
+      <c r="AR2" s="101"/>
+      <c r="AS2" s="105"/>
+      <c r="AT2" s="105"/>
+      <c r="AU2" s="105"/>
+      <c r="AV2" s="105"/>
+      <c r="AW2" s="105"/>
+      <c r="AX2" s="101"/>
+      <c r="AY2" s="101"/>
+      <c r="AZ2" s="107"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="66" t="str">
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="91" t="str">
         <f>設定情報!$C$4</f>
         <v>-</v>
       </c>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="72" t="s">
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="66" t="str">
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="91" t="str">
         <f>設定情報!$C$5</f>
         <v>画面／機能一覧</v>
       </c>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="64"/>
-      <c r="AH3" s="64"/>
-      <c r="AI3" s="64"/>
-      <c r="AJ3" s="64"/>
-      <c r="AK3" s="64"/>
-      <c r="AL3" s="64"/>
-      <c r="AM3" s="66"/>
-      <c r="AN3" s="66"/>
-      <c r="AO3" s="66"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="66"/>
-      <c r="AR3" s="66"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="68"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="66"/>
-      <c r="AY3" s="66"/>
-      <c r="AZ3" s="70"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="91"/>
+      <c r="AF3" s="91"/>
+      <c r="AG3" s="103"/>
+      <c r="AH3" s="103"/>
+      <c r="AI3" s="103"/>
+      <c r="AJ3" s="103"/>
+      <c r="AK3" s="103"/>
+      <c r="AL3" s="103"/>
+      <c r="AM3" s="91"/>
+      <c r="AN3" s="91"/>
+      <c r="AO3" s="91"/>
+      <c r="AP3" s="91"/>
+      <c r="AQ3" s="91"/>
+      <c r="AR3" s="91"/>
+      <c r="AS3" s="106"/>
+      <c r="AT3" s="106"/>
+      <c r="AU3" s="106"/>
+      <c r="AV3" s="106"/>
+      <c r="AW3" s="106"/>
+      <c r="AX3" s="91"/>
+      <c r="AY3" s="91"/>
+      <c r="AZ3" s="108"/>
     </row>
     <row r="4" spans="1:52" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A4" s="2"/>
@@ -2118,1098 +2138,1098 @@
     </row>
     <row r="7" spans="1:52" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="A7" s="9"/>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="76" t="s">
+      <c r="C7" s="93"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="73" t="s">
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="73" t="s">
+      <c r="L7" s="93"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="93"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="R7" s="74"/>
-      <c r="S7" s="74"/>
-      <c r="T7" s="74"/>
-      <c r="U7" s="74"/>
-      <c r="V7" s="74"/>
-      <c r="W7" s="74"/>
-      <c r="X7" s="74"/>
-      <c r="Y7" s="74"/>
-      <c r="Z7" s="74"/>
-      <c r="AA7" s="74"/>
-      <c r="AB7" s="74"/>
-      <c r="AC7" s="74"/>
-      <c r="AD7" s="74"/>
-      <c r="AE7" s="74"/>
-      <c r="AF7" s="74"/>
-      <c r="AG7" s="74"/>
-      <c r="AH7" s="74"/>
-      <c r="AI7" s="74"/>
-      <c r="AJ7" s="74"/>
-      <c r="AK7" s="74"/>
-      <c r="AL7" s="74"/>
-      <c r="AM7" s="74"/>
-      <c r="AN7" s="74"/>
-      <c r="AO7" s="74"/>
-      <c r="AP7" s="74"/>
-      <c r="AQ7" s="74"/>
-      <c r="AR7" s="74"/>
-      <c r="AS7" s="74"/>
-      <c r="AT7" s="74"/>
-      <c r="AU7" s="74"/>
-      <c r="AV7" s="74"/>
-      <c r="AW7" s="74"/>
-      <c r="AX7" s="74"/>
-      <c r="AY7" s="75"/>
+      <c r="R7" s="93"/>
+      <c r="S7" s="93"/>
+      <c r="T7" s="93"/>
+      <c r="U7" s="93"/>
+      <c r="V7" s="93"/>
+      <c r="W7" s="93"/>
+      <c r="X7" s="93"/>
+      <c r="Y7" s="93"/>
+      <c r="Z7" s="93"/>
+      <c r="AA7" s="93"/>
+      <c r="AB7" s="93"/>
+      <c r="AC7" s="93"/>
+      <c r="AD7" s="93"/>
+      <c r="AE7" s="93"/>
+      <c r="AF7" s="93"/>
+      <c r="AG7" s="93"/>
+      <c r="AH7" s="93"/>
+      <c r="AI7" s="93"/>
+      <c r="AJ7" s="93"/>
+      <c r="AK7" s="93"/>
+      <c r="AL7" s="93"/>
+      <c r="AM7" s="93"/>
+      <c r="AN7" s="93"/>
+      <c r="AO7" s="93"/>
+      <c r="AP7" s="93"/>
+      <c r="AQ7" s="93"/>
+      <c r="AR7" s="93"/>
+      <c r="AS7" s="93"/>
+      <c r="AT7" s="93"/>
+      <c r="AU7" s="93"/>
+      <c r="AV7" s="93"/>
+      <c r="AW7" s="93"/>
+      <c r="AX7" s="93"/>
+      <c r="AY7" s="94"/>
       <c r="AZ7" s="11"/>
     </row>
     <row r="8" spans="1:52" s="8" customFormat="1" ht="31.5" hidden="1" customHeight="1">
       <c r="A8" s="9"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="86"/>
-      <c r="P8" s="87"/>
-      <c r="Q8" s="88"/>
-      <c r="R8" s="86"/>
-      <c r="S8" s="86"/>
-      <c r="T8" s="86"/>
-      <c r="U8" s="86"/>
-      <c r="V8" s="86"/>
-      <c r="W8" s="86"/>
-      <c r="X8" s="86"/>
-      <c r="Y8" s="86"/>
-      <c r="Z8" s="86"/>
-      <c r="AA8" s="86"/>
-      <c r="AB8" s="86"/>
-      <c r="AC8" s="86"/>
-      <c r="AD8" s="86"/>
-      <c r="AE8" s="86"/>
-      <c r="AF8" s="86"/>
-      <c r="AG8" s="86"/>
-      <c r="AH8" s="86"/>
-      <c r="AI8" s="86"/>
-      <c r="AJ8" s="86"/>
-      <c r="AK8" s="86"/>
-      <c r="AL8" s="86"/>
-      <c r="AM8" s="86"/>
-      <c r="AN8" s="86"/>
-      <c r="AO8" s="86"/>
-      <c r="AP8" s="86"/>
-      <c r="AQ8" s="86"/>
-      <c r="AR8" s="86"/>
-      <c r="AS8" s="86"/>
-      <c r="AT8" s="86"/>
-      <c r="AU8" s="86"/>
-      <c r="AV8" s="86"/>
-      <c r="AW8" s="86"/>
-      <c r="AX8" s="86"/>
-      <c r="AY8" s="87"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="86"/>
+      <c r="Q8" s="87"/>
+      <c r="R8" s="85"/>
+      <c r="S8" s="85"/>
+      <c r="T8" s="85"/>
+      <c r="U8" s="85"/>
+      <c r="V8" s="85"/>
+      <c r="W8" s="85"/>
+      <c r="X8" s="85"/>
+      <c r="Y8" s="85"/>
+      <c r="Z8" s="85"/>
+      <c r="AA8" s="85"/>
+      <c r="AB8" s="85"/>
+      <c r="AC8" s="85"/>
+      <c r="AD8" s="85"/>
+      <c r="AE8" s="85"/>
+      <c r="AF8" s="85"/>
+      <c r="AG8" s="85"/>
+      <c r="AH8" s="85"/>
+      <c r="AI8" s="85"/>
+      <c r="AJ8" s="85"/>
+      <c r="AK8" s="85"/>
+      <c r="AL8" s="85"/>
+      <c r="AM8" s="85"/>
+      <c r="AN8" s="85"/>
+      <c r="AO8" s="85"/>
+      <c r="AP8" s="85"/>
+      <c r="AQ8" s="85"/>
+      <c r="AR8" s="85"/>
+      <c r="AS8" s="85"/>
+      <c r="AT8" s="85"/>
+      <c r="AU8" s="85"/>
+      <c r="AV8" s="85"/>
+      <c r="AW8" s="85"/>
+      <c r="AX8" s="85"/>
+      <c r="AY8" s="86"/>
       <c r="AZ8" s="12"/>
     </row>
     <row r="9" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1">
       <c r="A9" s="9"/>
-      <c r="B9" s="89">
+      <c r="B9" s="66">
         <v>1</v>
       </c>
-      <c r="C9" s="90"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="92">
+      <c r="C9" s="67"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="69">
         <v>42591</v>
       </c>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="95" t="s">
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="96"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="96"/>
-      <c r="O9" s="96"/>
-      <c r="P9" s="97"/>
-      <c r="Q9" s="98" t="s">
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="R9" s="96"/>
-      <c r="S9" s="96"/>
-      <c r="T9" s="96"/>
-      <c r="U9" s="96"/>
-      <c r="V9" s="96"/>
-      <c r="W9" s="96"/>
-      <c r="X9" s="96"/>
-      <c r="Y9" s="96"/>
-      <c r="Z9" s="96"/>
-      <c r="AA9" s="96"/>
-      <c r="AB9" s="96"/>
-      <c r="AC9" s="96"/>
-      <c r="AD9" s="96"/>
-      <c r="AE9" s="96"/>
-      <c r="AF9" s="96"/>
-      <c r="AG9" s="96"/>
-      <c r="AH9" s="96"/>
-      <c r="AI9" s="96"/>
-      <c r="AJ9" s="96"/>
-      <c r="AK9" s="96"/>
-      <c r="AL9" s="96"/>
-      <c r="AM9" s="96"/>
-      <c r="AN9" s="96"/>
-      <c r="AO9" s="96"/>
-      <c r="AP9" s="96"/>
-      <c r="AQ9" s="96"/>
-      <c r="AR9" s="96"/>
-      <c r="AS9" s="96"/>
-      <c r="AT9" s="96"/>
-      <c r="AU9" s="96"/>
-      <c r="AV9" s="96"/>
-      <c r="AW9" s="96"/>
-      <c r="AX9" s="96"/>
-      <c r="AY9" s="97"/>
+      <c r="R9" s="76"/>
+      <c r="S9" s="76"/>
+      <c r="T9" s="76"/>
+      <c r="U9" s="76"/>
+      <c r="V9" s="76"/>
+      <c r="W9" s="76"/>
+      <c r="X9" s="76"/>
+      <c r="Y9" s="76"/>
+      <c r="Z9" s="76"/>
+      <c r="AA9" s="76"/>
+      <c r="AB9" s="76"/>
+      <c r="AC9" s="76"/>
+      <c r="AD9" s="76"/>
+      <c r="AE9" s="76"/>
+      <c r="AF9" s="76"/>
+      <c r="AG9" s="76"/>
+      <c r="AH9" s="76"/>
+      <c r="AI9" s="76"/>
+      <c r="AJ9" s="76"/>
+      <c r="AK9" s="76"/>
+      <c r="AL9" s="76"/>
+      <c r="AM9" s="76"/>
+      <c r="AN9" s="76"/>
+      <c r="AO9" s="76"/>
+      <c r="AP9" s="76"/>
+      <c r="AQ9" s="76"/>
+      <c r="AR9" s="76"/>
+      <c r="AS9" s="76"/>
+      <c r="AT9" s="76"/>
+      <c r="AU9" s="76"/>
+      <c r="AV9" s="76"/>
+      <c r="AW9" s="76"/>
+      <c r="AX9" s="76"/>
+      <c r="AY9" s="77"/>
       <c r="AZ9" s="12"/>
     </row>
     <row r="10" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1">
       <c r="A10" s="9"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="94"/>
-      <c r="K10" s="99"/>
-      <c r="L10" s="100"/>
-      <c r="M10" s="100"/>
-      <c r="N10" s="100"/>
-      <c r="O10" s="100"/>
-      <c r="P10" s="101"/>
-      <c r="Q10" s="98"/>
-      <c r="R10" s="96"/>
-      <c r="S10" s="96"/>
-      <c r="T10" s="96"/>
-      <c r="U10" s="96"/>
-      <c r="V10" s="96"/>
-      <c r="W10" s="96"/>
-      <c r="X10" s="96"/>
-      <c r="Y10" s="96"/>
-      <c r="Z10" s="96"/>
-      <c r="AA10" s="96"/>
-      <c r="AB10" s="96"/>
-      <c r="AC10" s="96"/>
-      <c r="AD10" s="96"/>
-      <c r="AE10" s="96"/>
-      <c r="AF10" s="96"/>
-      <c r="AG10" s="96"/>
-      <c r="AH10" s="96"/>
-      <c r="AI10" s="96"/>
-      <c r="AJ10" s="96"/>
-      <c r="AK10" s="96"/>
-      <c r="AL10" s="96"/>
-      <c r="AM10" s="96"/>
-      <c r="AN10" s="96"/>
-      <c r="AO10" s="96"/>
-      <c r="AP10" s="96"/>
-      <c r="AQ10" s="96"/>
-      <c r="AR10" s="96"/>
-      <c r="AS10" s="96"/>
-      <c r="AT10" s="96"/>
-      <c r="AU10" s="96"/>
-      <c r="AV10" s="96"/>
-      <c r="AW10" s="96"/>
-      <c r="AX10" s="96"/>
-      <c r="AY10" s="97"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="76"/>
+      <c r="S10" s="76"/>
+      <c r="T10" s="76"/>
+      <c r="U10" s="76"/>
+      <c r="V10" s="76"/>
+      <c r="W10" s="76"/>
+      <c r="X10" s="76"/>
+      <c r="Y10" s="76"/>
+      <c r="Z10" s="76"/>
+      <c r="AA10" s="76"/>
+      <c r="AB10" s="76"/>
+      <c r="AC10" s="76"/>
+      <c r="AD10" s="76"/>
+      <c r="AE10" s="76"/>
+      <c r="AF10" s="76"/>
+      <c r="AG10" s="76"/>
+      <c r="AH10" s="76"/>
+      <c r="AI10" s="76"/>
+      <c r="AJ10" s="76"/>
+      <c r="AK10" s="76"/>
+      <c r="AL10" s="76"/>
+      <c r="AM10" s="76"/>
+      <c r="AN10" s="76"/>
+      <c r="AO10" s="76"/>
+      <c r="AP10" s="76"/>
+      <c r="AQ10" s="76"/>
+      <c r="AR10" s="76"/>
+      <c r="AS10" s="76"/>
+      <c r="AT10" s="76"/>
+      <c r="AU10" s="76"/>
+      <c r="AV10" s="76"/>
+      <c r="AW10" s="76"/>
+      <c r="AX10" s="76"/>
+      <c r="AY10" s="77"/>
       <c r="AZ10" s="12"/>
     </row>
     <row r="11" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1">
       <c r="A11" s="9"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="93"/>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="100"/>
-      <c r="M11" s="100"/>
-      <c r="N11" s="100"/>
-      <c r="O11" s="100"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="98"/>
-      <c r="R11" s="96"/>
-      <c r="S11" s="96"/>
-      <c r="T11" s="96"/>
-      <c r="U11" s="96"/>
-      <c r="V11" s="96"/>
-      <c r="W11" s="96"/>
-      <c r="X11" s="96"/>
-      <c r="Y11" s="96"/>
-      <c r="Z11" s="96"/>
-      <c r="AA11" s="96"/>
-      <c r="AB11" s="96"/>
-      <c r="AC11" s="96"/>
-      <c r="AD11" s="96"/>
-      <c r="AE11" s="96"/>
-      <c r="AF11" s="96"/>
-      <c r="AG11" s="96"/>
-      <c r="AH11" s="96"/>
-      <c r="AI11" s="96"/>
-      <c r="AJ11" s="96"/>
-      <c r="AK11" s="96"/>
-      <c r="AL11" s="96"/>
-      <c r="AM11" s="96"/>
-      <c r="AN11" s="96"/>
-      <c r="AO11" s="96"/>
-      <c r="AP11" s="96"/>
-      <c r="AQ11" s="96"/>
-      <c r="AR11" s="96"/>
-      <c r="AS11" s="96"/>
-      <c r="AT11" s="96"/>
-      <c r="AU11" s="96"/>
-      <c r="AV11" s="96"/>
-      <c r="AW11" s="96"/>
-      <c r="AX11" s="96"/>
-      <c r="AY11" s="97"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="74"/>
+      <c r="Q11" s="75"/>
+      <c r="R11" s="76"/>
+      <c r="S11" s="76"/>
+      <c r="T11" s="76"/>
+      <c r="U11" s="76"/>
+      <c r="V11" s="76"/>
+      <c r="W11" s="76"/>
+      <c r="X11" s="76"/>
+      <c r="Y11" s="76"/>
+      <c r="Z11" s="76"/>
+      <c r="AA11" s="76"/>
+      <c r="AB11" s="76"/>
+      <c r="AC11" s="76"/>
+      <c r="AD11" s="76"/>
+      <c r="AE11" s="76"/>
+      <c r="AF11" s="76"/>
+      <c r="AG11" s="76"/>
+      <c r="AH11" s="76"/>
+      <c r="AI11" s="76"/>
+      <c r="AJ11" s="76"/>
+      <c r="AK11" s="76"/>
+      <c r="AL11" s="76"/>
+      <c r="AM11" s="76"/>
+      <c r="AN11" s="76"/>
+      <c r="AO11" s="76"/>
+      <c r="AP11" s="76"/>
+      <c r="AQ11" s="76"/>
+      <c r="AR11" s="76"/>
+      <c r="AS11" s="76"/>
+      <c r="AT11" s="76"/>
+      <c r="AU11" s="76"/>
+      <c r="AV11" s="76"/>
+      <c r="AW11" s="76"/>
+      <c r="AX11" s="76"/>
+      <c r="AY11" s="77"/>
       <c r="AZ11" s="12"/>
     </row>
     <row r="12" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1">
       <c r="A12" s="9"/>
-      <c r="B12" s="89"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="99"/>
-      <c r="L12" s="100"/>
-      <c r="M12" s="100"/>
-      <c r="N12" s="100"/>
-      <c r="O12" s="100"/>
-      <c r="P12" s="101"/>
-      <c r="Q12" s="98"/>
-      <c r="R12" s="96"/>
-      <c r="S12" s="96"/>
-      <c r="T12" s="96"/>
-      <c r="U12" s="96"/>
-      <c r="V12" s="96"/>
-      <c r="W12" s="96"/>
-      <c r="X12" s="96"/>
-      <c r="Y12" s="96"/>
-      <c r="Z12" s="96"/>
-      <c r="AA12" s="96"/>
-      <c r="AB12" s="96"/>
-      <c r="AC12" s="96"/>
-      <c r="AD12" s="96"/>
-      <c r="AE12" s="96"/>
-      <c r="AF12" s="96"/>
-      <c r="AG12" s="96"/>
-      <c r="AH12" s="96"/>
-      <c r="AI12" s="96"/>
-      <c r="AJ12" s="96"/>
-      <c r="AK12" s="96"/>
-      <c r="AL12" s="96"/>
-      <c r="AM12" s="96"/>
-      <c r="AN12" s="96"/>
-      <c r="AO12" s="96"/>
-      <c r="AP12" s="96"/>
-      <c r="AQ12" s="96"/>
-      <c r="AR12" s="96"/>
-      <c r="AS12" s="96"/>
-      <c r="AT12" s="96"/>
-      <c r="AU12" s="96"/>
-      <c r="AV12" s="96"/>
-      <c r="AW12" s="96"/>
-      <c r="AX12" s="96"/>
-      <c r="AY12" s="97"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="75"/>
+      <c r="R12" s="76"/>
+      <c r="S12" s="76"/>
+      <c r="T12" s="76"/>
+      <c r="U12" s="76"/>
+      <c r="V12" s="76"/>
+      <c r="W12" s="76"/>
+      <c r="X12" s="76"/>
+      <c r="Y12" s="76"/>
+      <c r="Z12" s="76"/>
+      <c r="AA12" s="76"/>
+      <c r="AB12" s="76"/>
+      <c r="AC12" s="76"/>
+      <c r="AD12" s="76"/>
+      <c r="AE12" s="76"/>
+      <c r="AF12" s="76"/>
+      <c r="AG12" s="76"/>
+      <c r="AH12" s="76"/>
+      <c r="AI12" s="76"/>
+      <c r="AJ12" s="76"/>
+      <c r="AK12" s="76"/>
+      <c r="AL12" s="76"/>
+      <c r="AM12" s="76"/>
+      <c r="AN12" s="76"/>
+      <c r="AO12" s="76"/>
+      <c r="AP12" s="76"/>
+      <c r="AQ12" s="76"/>
+      <c r="AR12" s="76"/>
+      <c r="AS12" s="76"/>
+      <c r="AT12" s="76"/>
+      <c r="AU12" s="76"/>
+      <c r="AV12" s="76"/>
+      <c r="AW12" s="76"/>
+      <c r="AX12" s="76"/>
+      <c r="AY12" s="77"/>
       <c r="AZ12" s="12"/>
     </row>
     <row r="13" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1">
       <c r="A13" s="9"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="99"/>
-      <c r="L13" s="100"/>
-      <c r="M13" s="100"/>
-      <c r="N13" s="100"/>
-      <c r="O13" s="100"/>
-      <c r="P13" s="101"/>
-      <c r="Q13" s="98"/>
-      <c r="R13" s="96"/>
-      <c r="S13" s="96"/>
-      <c r="T13" s="96"/>
-      <c r="U13" s="96"/>
-      <c r="V13" s="96"/>
-      <c r="W13" s="96"/>
-      <c r="X13" s="96"/>
-      <c r="Y13" s="96"/>
-      <c r="Z13" s="96"/>
-      <c r="AA13" s="96"/>
-      <c r="AB13" s="96"/>
-      <c r="AC13" s="96"/>
-      <c r="AD13" s="96"/>
-      <c r="AE13" s="96"/>
-      <c r="AF13" s="96"/>
-      <c r="AG13" s="96"/>
-      <c r="AH13" s="96"/>
-      <c r="AI13" s="96"/>
-      <c r="AJ13" s="96"/>
-      <c r="AK13" s="96"/>
-      <c r="AL13" s="96"/>
-      <c r="AM13" s="96"/>
-      <c r="AN13" s="96"/>
-      <c r="AO13" s="96"/>
-      <c r="AP13" s="96"/>
-      <c r="AQ13" s="96"/>
-      <c r="AR13" s="96"/>
-      <c r="AS13" s="96"/>
-      <c r="AT13" s="96"/>
-      <c r="AU13" s="96"/>
-      <c r="AV13" s="96"/>
-      <c r="AW13" s="96"/>
-      <c r="AX13" s="96"/>
-      <c r="AY13" s="97"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="74"/>
+      <c r="Q13" s="75"/>
+      <c r="R13" s="76"/>
+      <c r="S13" s="76"/>
+      <c r="T13" s="76"/>
+      <c r="U13" s="76"/>
+      <c r="V13" s="76"/>
+      <c r="W13" s="76"/>
+      <c r="X13" s="76"/>
+      <c r="Y13" s="76"/>
+      <c r="Z13" s="76"/>
+      <c r="AA13" s="76"/>
+      <c r="AB13" s="76"/>
+      <c r="AC13" s="76"/>
+      <c r="AD13" s="76"/>
+      <c r="AE13" s="76"/>
+      <c r="AF13" s="76"/>
+      <c r="AG13" s="76"/>
+      <c r="AH13" s="76"/>
+      <c r="AI13" s="76"/>
+      <c r="AJ13" s="76"/>
+      <c r="AK13" s="76"/>
+      <c r="AL13" s="76"/>
+      <c r="AM13" s="76"/>
+      <c r="AN13" s="76"/>
+      <c r="AO13" s="76"/>
+      <c r="AP13" s="76"/>
+      <c r="AQ13" s="76"/>
+      <c r="AR13" s="76"/>
+      <c r="AS13" s="76"/>
+      <c r="AT13" s="76"/>
+      <c r="AU13" s="76"/>
+      <c r="AV13" s="76"/>
+      <c r="AW13" s="76"/>
+      <c r="AX13" s="76"/>
+      <c r="AY13" s="77"/>
       <c r="AZ13" s="12"/>
     </row>
     <row r="14" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1">
       <c r="A14" s="9"/>
-      <c r="B14" s="89"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="99"/>
-      <c r="L14" s="100"/>
-      <c r="M14" s="100"/>
-      <c r="N14" s="100"/>
-      <c r="O14" s="100"/>
-      <c r="P14" s="101"/>
-      <c r="Q14" s="98"/>
-      <c r="R14" s="96"/>
-      <c r="S14" s="96"/>
-      <c r="T14" s="96"/>
-      <c r="U14" s="96"/>
-      <c r="V14" s="96"/>
-      <c r="W14" s="96"/>
-      <c r="X14" s="96"/>
-      <c r="Y14" s="96"/>
-      <c r="Z14" s="96"/>
-      <c r="AA14" s="96"/>
-      <c r="AB14" s="96"/>
-      <c r="AC14" s="96"/>
-      <c r="AD14" s="96"/>
-      <c r="AE14" s="96"/>
-      <c r="AF14" s="96"/>
-      <c r="AG14" s="96"/>
-      <c r="AH14" s="96"/>
-      <c r="AI14" s="96"/>
-      <c r="AJ14" s="96"/>
-      <c r="AK14" s="96"/>
-      <c r="AL14" s="96"/>
-      <c r="AM14" s="96"/>
-      <c r="AN14" s="96"/>
-      <c r="AO14" s="96"/>
-      <c r="AP14" s="96"/>
-      <c r="AQ14" s="96"/>
-      <c r="AR14" s="96"/>
-      <c r="AS14" s="96"/>
-      <c r="AT14" s="96"/>
-      <c r="AU14" s="96"/>
-      <c r="AV14" s="96"/>
-      <c r="AW14" s="96"/>
-      <c r="AX14" s="96"/>
-      <c r="AY14" s="97"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="75"/>
+      <c r="R14" s="76"/>
+      <c r="S14" s="76"/>
+      <c r="T14" s="76"/>
+      <c r="U14" s="76"/>
+      <c r="V14" s="76"/>
+      <c r="W14" s="76"/>
+      <c r="X14" s="76"/>
+      <c r="Y14" s="76"/>
+      <c r="Z14" s="76"/>
+      <c r="AA14" s="76"/>
+      <c r="AB14" s="76"/>
+      <c r="AC14" s="76"/>
+      <c r="AD14" s="76"/>
+      <c r="AE14" s="76"/>
+      <c r="AF14" s="76"/>
+      <c r="AG14" s="76"/>
+      <c r="AH14" s="76"/>
+      <c r="AI14" s="76"/>
+      <c r="AJ14" s="76"/>
+      <c r="AK14" s="76"/>
+      <c r="AL14" s="76"/>
+      <c r="AM14" s="76"/>
+      <c r="AN14" s="76"/>
+      <c r="AO14" s="76"/>
+      <c r="AP14" s="76"/>
+      <c r="AQ14" s="76"/>
+      <c r="AR14" s="76"/>
+      <c r="AS14" s="76"/>
+      <c r="AT14" s="76"/>
+      <c r="AU14" s="76"/>
+      <c r="AV14" s="76"/>
+      <c r="AW14" s="76"/>
+      <c r="AX14" s="76"/>
+      <c r="AY14" s="77"/>
       <c r="AZ14" s="12"/>
     </row>
     <row r="15" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1">
       <c r="A15" s="9"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="99"/>
-      <c r="L15" s="100"/>
-      <c r="M15" s="100"/>
-      <c r="N15" s="100"/>
-      <c r="O15" s="100"/>
-      <c r="P15" s="101"/>
-      <c r="Q15" s="98"/>
-      <c r="R15" s="96"/>
-      <c r="S15" s="96"/>
-      <c r="T15" s="96"/>
-      <c r="U15" s="96"/>
-      <c r="V15" s="96"/>
-      <c r="W15" s="96"/>
-      <c r="X15" s="96"/>
-      <c r="Y15" s="96"/>
-      <c r="Z15" s="96"/>
-      <c r="AA15" s="96"/>
-      <c r="AB15" s="96"/>
-      <c r="AC15" s="96"/>
-      <c r="AD15" s="96"/>
-      <c r="AE15" s="96"/>
-      <c r="AF15" s="96"/>
-      <c r="AG15" s="96"/>
-      <c r="AH15" s="96"/>
-      <c r="AI15" s="96"/>
-      <c r="AJ15" s="96"/>
-      <c r="AK15" s="96"/>
-      <c r="AL15" s="96"/>
-      <c r="AM15" s="96"/>
-      <c r="AN15" s="96"/>
-      <c r="AO15" s="96"/>
-      <c r="AP15" s="96"/>
-      <c r="AQ15" s="96"/>
-      <c r="AR15" s="96"/>
-      <c r="AS15" s="96"/>
-      <c r="AT15" s="96"/>
-      <c r="AU15" s="96"/>
-      <c r="AV15" s="96"/>
-      <c r="AW15" s="96"/>
-      <c r="AX15" s="96"/>
-      <c r="AY15" s="97"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="74"/>
+      <c r="Q15" s="75"/>
+      <c r="R15" s="76"/>
+      <c r="S15" s="76"/>
+      <c r="T15" s="76"/>
+      <c r="U15" s="76"/>
+      <c r="V15" s="76"/>
+      <c r="W15" s="76"/>
+      <c r="X15" s="76"/>
+      <c r="Y15" s="76"/>
+      <c r="Z15" s="76"/>
+      <c r="AA15" s="76"/>
+      <c r="AB15" s="76"/>
+      <c r="AC15" s="76"/>
+      <c r="AD15" s="76"/>
+      <c r="AE15" s="76"/>
+      <c r="AF15" s="76"/>
+      <c r="AG15" s="76"/>
+      <c r="AH15" s="76"/>
+      <c r="AI15" s="76"/>
+      <c r="AJ15" s="76"/>
+      <c r="AK15" s="76"/>
+      <c r="AL15" s="76"/>
+      <c r="AM15" s="76"/>
+      <c r="AN15" s="76"/>
+      <c r="AO15" s="76"/>
+      <c r="AP15" s="76"/>
+      <c r="AQ15" s="76"/>
+      <c r="AR15" s="76"/>
+      <c r="AS15" s="76"/>
+      <c r="AT15" s="76"/>
+      <c r="AU15" s="76"/>
+      <c r="AV15" s="76"/>
+      <c r="AW15" s="76"/>
+      <c r="AX15" s="76"/>
+      <c r="AY15" s="77"/>
       <c r="AZ15" s="12"/>
     </row>
     <row r="16" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1">
       <c r="A16" s="9"/>
-      <c r="B16" s="89"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="100"/>
-      <c r="M16" s="100"/>
-      <c r="N16" s="100"/>
-      <c r="O16" s="100"/>
-      <c r="P16" s="101"/>
-      <c r="Q16" s="98"/>
-      <c r="R16" s="96"/>
-      <c r="S16" s="96"/>
-      <c r="T16" s="96"/>
-      <c r="U16" s="96"/>
-      <c r="V16" s="96"/>
-      <c r="W16" s="96"/>
-      <c r="X16" s="96"/>
-      <c r="Y16" s="96"/>
-      <c r="Z16" s="96"/>
-      <c r="AA16" s="96"/>
-      <c r="AB16" s="96"/>
-      <c r="AC16" s="96"/>
-      <c r="AD16" s="96"/>
-      <c r="AE16" s="96"/>
-      <c r="AF16" s="96"/>
-      <c r="AG16" s="96"/>
-      <c r="AH16" s="96"/>
-      <c r="AI16" s="96"/>
-      <c r="AJ16" s="96"/>
-      <c r="AK16" s="96"/>
-      <c r="AL16" s="96"/>
-      <c r="AM16" s="96"/>
-      <c r="AN16" s="96"/>
-      <c r="AO16" s="96"/>
-      <c r="AP16" s="96"/>
-      <c r="AQ16" s="96"/>
-      <c r="AR16" s="96"/>
-      <c r="AS16" s="96"/>
-      <c r="AT16" s="96"/>
-      <c r="AU16" s="96"/>
-      <c r="AV16" s="96"/>
-      <c r="AW16" s="96"/>
-      <c r="AX16" s="96"/>
-      <c r="AY16" s="97"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="75"/>
+      <c r="R16" s="76"/>
+      <c r="S16" s="76"/>
+      <c r="T16" s="76"/>
+      <c r="U16" s="76"/>
+      <c r="V16" s="76"/>
+      <c r="W16" s="76"/>
+      <c r="X16" s="76"/>
+      <c r="Y16" s="76"/>
+      <c r="Z16" s="76"/>
+      <c r="AA16" s="76"/>
+      <c r="AB16" s="76"/>
+      <c r="AC16" s="76"/>
+      <c r="AD16" s="76"/>
+      <c r="AE16" s="76"/>
+      <c r="AF16" s="76"/>
+      <c r="AG16" s="76"/>
+      <c r="AH16" s="76"/>
+      <c r="AI16" s="76"/>
+      <c r="AJ16" s="76"/>
+      <c r="AK16" s="76"/>
+      <c r="AL16" s="76"/>
+      <c r="AM16" s="76"/>
+      <c r="AN16" s="76"/>
+      <c r="AO16" s="76"/>
+      <c r="AP16" s="76"/>
+      <c r="AQ16" s="76"/>
+      <c r="AR16" s="76"/>
+      <c r="AS16" s="76"/>
+      <c r="AT16" s="76"/>
+      <c r="AU16" s="76"/>
+      <c r="AV16" s="76"/>
+      <c r="AW16" s="76"/>
+      <c r="AX16" s="76"/>
+      <c r="AY16" s="77"/>
       <c r="AZ16" s="12"/>
     </row>
     <row r="17" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1">
       <c r="A17" s="9"/>
-      <c r="B17" s="89"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="99"/>
-      <c r="L17" s="100"/>
-      <c r="M17" s="100"/>
-      <c r="N17" s="100"/>
-      <c r="O17" s="100"/>
-      <c r="P17" s="101"/>
-      <c r="Q17" s="98"/>
-      <c r="R17" s="96"/>
-      <c r="S17" s="96"/>
-      <c r="T17" s="96"/>
-      <c r="U17" s="96"/>
-      <c r="V17" s="96"/>
-      <c r="W17" s="96"/>
-      <c r="X17" s="96"/>
-      <c r="Y17" s="96"/>
-      <c r="Z17" s="96"/>
-      <c r="AA17" s="96"/>
-      <c r="AB17" s="96"/>
-      <c r="AC17" s="96"/>
-      <c r="AD17" s="96"/>
-      <c r="AE17" s="96"/>
-      <c r="AF17" s="96"/>
-      <c r="AG17" s="96"/>
-      <c r="AH17" s="96"/>
-      <c r="AI17" s="96"/>
-      <c r="AJ17" s="96"/>
-      <c r="AK17" s="96"/>
-      <c r="AL17" s="96"/>
-      <c r="AM17" s="96"/>
-      <c r="AN17" s="96"/>
-      <c r="AO17" s="96"/>
-      <c r="AP17" s="96"/>
-      <c r="AQ17" s="96"/>
-      <c r="AR17" s="96"/>
-      <c r="AS17" s="96"/>
-      <c r="AT17" s="96"/>
-      <c r="AU17" s="96"/>
-      <c r="AV17" s="96"/>
-      <c r="AW17" s="96"/>
-      <c r="AX17" s="96"/>
-      <c r="AY17" s="97"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="74"/>
+      <c r="Q17" s="75"/>
+      <c r="R17" s="76"/>
+      <c r="S17" s="76"/>
+      <c r="T17" s="76"/>
+      <c r="U17" s="76"/>
+      <c r="V17" s="76"/>
+      <c r="W17" s="76"/>
+      <c r="X17" s="76"/>
+      <c r="Y17" s="76"/>
+      <c r="Z17" s="76"/>
+      <c r="AA17" s="76"/>
+      <c r="AB17" s="76"/>
+      <c r="AC17" s="76"/>
+      <c r="AD17" s="76"/>
+      <c r="AE17" s="76"/>
+      <c r="AF17" s="76"/>
+      <c r="AG17" s="76"/>
+      <c r="AH17" s="76"/>
+      <c r="AI17" s="76"/>
+      <c r="AJ17" s="76"/>
+      <c r="AK17" s="76"/>
+      <c r="AL17" s="76"/>
+      <c r="AM17" s="76"/>
+      <c r="AN17" s="76"/>
+      <c r="AO17" s="76"/>
+      <c r="AP17" s="76"/>
+      <c r="AQ17" s="76"/>
+      <c r="AR17" s="76"/>
+      <c r="AS17" s="76"/>
+      <c r="AT17" s="76"/>
+      <c r="AU17" s="76"/>
+      <c r="AV17" s="76"/>
+      <c r="AW17" s="76"/>
+      <c r="AX17" s="76"/>
+      <c r="AY17" s="77"/>
       <c r="AZ17" s="12"/>
     </row>
     <row r="18" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1">
       <c r="A18" s="9"/>
-      <c r="B18" s="89"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="94"/>
-      <c r="K18" s="99"/>
-      <c r="L18" s="100"/>
-      <c r="M18" s="100"/>
-      <c r="N18" s="100"/>
-      <c r="O18" s="100"/>
-      <c r="P18" s="101"/>
-      <c r="Q18" s="98"/>
-      <c r="R18" s="96"/>
-      <c r="S18" s="96"/>
-      <c r="T18" s="96"/>
-      <c r="U18" s="96"/>
-      <c r="V18" s="96"/>
-      <c r="W18" s="96"/>
-      <c r="X18" s="96"/>
-      <c r="Y18" s="96"/>
-      <c r="Z18" s="96"/>
-      <c r="AA18" s="96"/>
-      <c r="AB18" s="96"/>
-      <c r="AC18" s="96"/>
-      <c r="AD18" s="96"/>
-      <c r="AE18" s="96"/>
-      <c r="AF18" s="96"/>
-      <c r="AG18" s="96"/>
-      <c r="AH18" s="96"/>
-      <c r="AI18" s="96"/>
-      <c r="AJ18" s="96"/>
-      <c r="AK18" s="96"/>
-      <c r="AL18" s="96"/>
-      <c r="AM18" s="96"/>
-      <c r="AN18" s="96"/>
-      <c r="AO18" s="96"/>
-      <c r="AP18" s="96"/>
-      <c r="AQ18" s="96"/>
-      <c r="AR18" s="96"/>
-      <c r="AS18" s="96"/>
-      <c r="AT18" s="96"/>
-      <c r="AU18" s="96"/>
-      <c r="AV18" s="96"/>
-      <c r="AW18" s="96"/>
-      <c r="AX18" s="96"/>
-      <c r="AY18" s="97"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="74"/>
+      <c r="Q18" s="75"/>
+      <c r="R18" s="76"/>
+      <c r="S18" s="76"/>
+      <c r="T18" s="76"/>
+      <c r="U18" s="76"/>
+      <c r="V18" s="76"/>
+      <c r="W18" s="76"/>
+      <c r="X18" s="76"/>
+      <c r="Y18" s="76"/>
+      <c r="Z18" s="76"/>
+      <c r="AA18" s="76"/>
+      <c r="AB18" s="76"/>
+      <c r="AC18" s="76"/>
+      <c r="AD18" s="76"/>
+      <c r="AE18" s="76"/>
+      <c r="AF18" s="76"/>
+      <c r="AG18" s="76"/>
+      <c r="AH18" s="76"/>
+      <c r="AI18" s="76"/>
+      <c r="AJ18" s="76"/>
+      <c r="AK18" s="76"/>
+      <c r="AL18" s="76"/>
+      <c r="AM18" s="76"/>
+      <c r="AN18" s="76"/>
+      <c r="AO18" s="76"/>
+      <c r="AP18" s="76"/>
+      <c r="AQ18" s="76"/>
+      <c r="AR18" s="76"/>
+      <c r="AS18" s="76"/>
+      <c r="AT18" s="76"/>
+      <c r="AU18" s="76"/>
+      <c r="AV18" s="76"/>
+      <c r="AW18" s="76"/>
+      <c r="AX18" s="76"/>
+      <c r="AY18" s="77"/>
       <c r="AZ18" s="12"/>
     </row>
     <row r="19" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1">
       <c r="A19" s="9"/>
-      <c r="B19" s="89"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="100"/>
-      <c r="M19" s="100"/>
-      <c r="N19" s="100"/>
-      <c r="O19" s="100"/>
-      <c r="P19" s="101"/>
-      <c r="Q19" s="98"/>
-      <c r="R19" s="96"/>
-      <c r="S19" s="96"/>
-      <c r="T19" s="96"/>
-      <c r="U19" s="96"/>
-      <c r="V19" s="96"/>
-      <c r="W19" s="96"/>
-      <c r="X19" s="96"/>
-      <c r="Y19" s="96"/>
-      <c r="Z19" s="96"/>
-      <c r="AA19" s="96"/>
-      <c r="AB19" s="96"/>
-      <c r="AC19" s="96"/>
-      <c r="AD19" s="96"/>
-      <c r="AE19" s="96"/>
-      <c r="AF19" s="96"/>
-      <c r="AG19" s="96"/>
-      <c r="AH19" s="96"/>
-      <c r="AI19" s="96"/>
-      <c r="AJ19" s="96"/>
-      <c r="AK19" s="96"/>
-      <c r="AL19" s="96"/>
-      <c r="AM19" s="96"/>
-      <c r="AN19" s="96"/>
-      <c r="AO19" s="96"/>
-      <c r="AP19" s="96"/>
-      <c r="AQ19" s="96"/>
-      <c r="AR19" s="96"/>
-      <c r="AS19" s="96"/>
-      <c r="AT19" s="96"/>
-      <c r="AU19" s="96"/>
-      <c r="AV19" s="96"/>
-      <c r="AW19" s="96"/>
-      <c r="AX19" s="96"/>
-      <c r="AY19" s="97"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="74"/>
+      <c r="Q19" s="75"/>
+      <c r="R19" s="76"/>
+      <c r="S19" s="76"/>
+      <c r="T19" s="76"/>
+      <c r="U19" s="76"/>
+      <c r="V19" s="76"/>
+      <c r="W19" s="76"/>
+      <c r="X19" s="76"/>
+      <c r="Y19" s="76"/>
+      <c r="Z19" s="76"/>
+      <c r="AA19" s="76"/>
+      <c r="AB19" s="76"/>
+      <c r="AC19" s="76"/>
+      <c r="AD19" s="76"/>
+      <c r="AE19" s="76"/>
+      <c r="AF19" s="76"/>
+      <c r="AG19" s="76"/>
+      <c r="AH19" s="76"/>
+      <c r="AI19" s="76"/>
+      <c r="AJ19" s="76"/>
+      <c r="AK19" s="76"/>
+      <c r="AL19" s="76"/>
+      <c r="AM19" s="76"/>
+      <c r="AN19" s="76"/>
+      <c r="AO19" s="76"/>
+      <c r="AP19" s="76"/>
+      <c r="AQ19" s="76"/>
+      <c r="AR19" s="76"/>
+      <c r="AS19" s="76"/>
+      <c r="AT19" s="76"/>
+      <c r="AU19" s="76"/>
+      <c r="AV19" s="76"/>
+      <c r="AW19" s="76"/>
+      <c r="AX19" s="76"/>
+      <c r="AY19" s="77"/>
       <c r="AZ19" s="12"/>
     </row>
     <row r="20" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1">
       <c r="A20" s="9"/>
-      <c r="B20" s="89"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="99"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="100"/>
-      <c r="N20" s="100"/>
-      <c r="O20" s="100"/>
-      <c r="P20" s="101"/>
-      <c r="Q20" s="98"/>
-      <c r="R20" s="96"/>
-      <c r="S20" s="96"/>
-      <c r="T20" s="96"/>
-      <c r="U20" s="96"/>
-      <c r="V20" s="96"/>
-      <c r="W20" s="96"/>
-      <c r="X20" s="96"/>
-      <c r="Y20" s="96"/>
-      <c r="Z20" s="96"/>
-      <c r="AA20" s="96"/>
-      <c r="AB20" s="96"/>
-      <c r="AC20" s="96"/>
-      <c r="AD20" s="96"/>
-      <c r="AE20" s="96"/>
-      <c r="AF20" s="96"/>
-      <c r="AG20" s="96"/>
-      <c r="AH20" s="96"/>
-      <c r="AI20" s="96"/>
-      <c r="AJ20" s="96"/>
-      <c r="AK20" s="96"/>
-      <c r="AL20" s="96"/>
-      <c r="AM20" s="96"/>
-      <c r="AN20" s="96"/>
-      <c r="AO20" s="96"/>
-      <c r="AP20" s="96"/>
-      <c r="AQ20" s="96"/>
-      <c r="AR20" s="96"/>
-      <c r="AS20" s="96"/>
-      <c r="AT20" s="96"/>
-      <c r="AU20" s="96"/>
-      <c r="AV20" s="96"/>
-      <c r="AW20" s="96"/>
-      <c r="AX20" s="96"/>
-      <c r="AY20" s="97"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="74"/>
+      <c r="Q20" s="75"/>
+      <c r="R20" s="76"/>
+      <c r="S20" s="76"/>
+      <c r="T20" s="76"/>
+      <c r="U20" s="76"/>
+      <c r="V20" s="76"/>
+      <c r="W20" s="76"/>
+      <c r="X20" s="76"/>
+      <c r="Y20" s="76"/>
+      <c r="Z20" s="76"/>
+      <c r="AA20" s="76"/>
+      <c r="AB20" s="76"/>
+      <c r="AC20" s="76"/>
+      <c r="AD20" s="76"/>
+      <c r="AE20" s="76"/>
+      <c r="AF20" s="76"/>
+      <c r="AG20" s="76"/>
+      <c r="AH20" s="76"/>
+      <c r="AI20" s="76"/>
+      <c r="AJ20" s="76"/>
+      <c r="AK20" s="76"/>
+      <c r="AL20" s="76"/>
+      <c r="AM20" s="76"/>
+      <c r="AN20" s="76"/>
+      <c r="AO20" s="76"/>
+      <c r="AP20" s="76"/>
+      <c r="AQ20" s="76"/>
+      <c r="AR20" s="76"/>
+      <c r="AS20" s="76"/>
+      <c r="AT20" s="76"/>
+      <c r="AU20" s="76"/>
+      <c r="AV20" s="76"/>
+      <c r="AW20" s="76"/>
+      <c r="AX20" s="76"/>
+      <c r="AY20" s="77"/>
       <c r="AZ20" s="12"/>
     </row>
     <row r="21" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1">
       <c r="A21" s="9"/>
-      <c r="B21" s="89"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="100"/>
-      <c r="M21" s="100"/>
-      <c r="N21" s="100"/>
-      <c r="O21" s="100"/>
-      <c r="P21" s="101"/>
-      <c r="Q21" s="98"/>
-      <c r="R21" s="96"/>
-      <c r="S21" s="96"/>
-      <c r="T21" s="96"/>
-      <c r="U21" s="96"/>
-      <c r="V21" s="96"/>
-      <c r="W21" s="96"/>
-      <c r="X21" s="96"/>
-      <c r="Y21" s="96"/>
-      <c r="Z21" s="96"/>
-      <c r="AA21" s="96"/>
-      <c r="AB21" s="96"/>
-      <c r="AC21" s="96"/>
-      <c r="AD21" s="96"/>
-      <c r="AE21" s="96"/>
-      <c r="AF21" s="96"/>
-      <c r="AG21" s="96"/>
-      <c r="AH21" s="96"/>
-      <c r="AI21" s="96"/>
-      <c r="AJ21" s="96"/>
-      <c r="AK21" s="96"/>
-      <c r="AL21" s="96"/>
-      <c r="AM21" s="96"/>
-      <c r="AN21" s="96"/>
-      <c r="AO21" s="96"/>
-      <c r="AP21" s="96"/>
-      <c r="AQ21" s="96"/>
-      <c r="AR21" s="96"/>
-      <c r="AS21" s="96"/>
-      <c r="AT21" s="96"/>
-      <c r="AU21" s="96"/>
-      <c r="AV21" s="96"/>
-      <c r="AW21" s="96"/>
-      <c r="AX21" s="96"/>
-      <c r="AY21" s="97"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="73"/>
+      <c r="O21" s="73"/>
+      <c r="P21" s="74"/>
+      <c r="Q21" s="75"/>
+      <c r="R21" s="76"/>
+      <c r="S21" s="76"/>
+      <c r="T21" s="76"/>
+      <c r="U21" s="76"/>
+      <c r="V21" s="76"/>
+      <c r="W21" s="76"/>
+      <c r="X21" s="76"/>
+      <c r="Y21" s="76"/>
+      <c r="Z21" s="76"/>
+      <c r="AA21" s="76"/>
+      <c r="AB21" s="76"/>
+      <c r="AC21" s="76"/>
+      <c r="AD21" s="76"/>
+      <c r="AE21" s="76"/>
+      <c r="AF21" s="76"/>
+      <c r="AG21" s="76"/>
+      <c r="AH21" s="76"/>
+      <c r="AI21" s="76"/>
+      <c r="AJ21" s="76"/>
+      <c r="AK21" s="76"/>
+      <c r="AL21" s="76"/>
+      <c r="AM21" s="76"/>
+      <c r="AN21" s="76"/>
+      <c r="AO21" s="76"/>
+      <c r="AP21" s="76"/>
+      <c r="AQ21" s="76"/>
+      <c r="AR21" s="76"/>
+      <c r="AS21" s="76"/>
+      <c r="AT21" s="76"/>
+      <c r="AU21" s="76"/>
+      <c r="AV21" s="76"/>
+      <c r="AW21" s="76"/>
+      <c r="AX21" s="76"/>
+      <c r="AY21" s="77"/>
       <c r="AZ21" s="12"/>
     </row>
     <row r="22" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1">
       <c r="A22" s="9"/>
-      <c r="B22" s="89"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="100"/>
-      <c r="M22" s="100"/>
-      <c r="N22" s="100"/>
-      <c r="O22" s="100"/>
-      <c r="P22" s="101"/>
-      <c r="Q22" s="98"/>
-      <c r="R22" s="96"/>
-      <c r="S22" s="96"/>
-      <c r="T22" s="96"/>
-      <c r="U22" s="96"/>
-      <c r="V22" s="96"/>
-      <c r="W22" s="96"/>
-      <c r="X22" s="96"/>
-      <c r="Y22" s="96"/>
-      <c r="Z22" s="96"/>
-      <c r="AA22" s="96"/>
-      <c r="AB22" s="96"/>
-      <c r="AC22" s="96"/>
-      <c r="AD22" s="96"/>
-      <c r="AE22" s="96"/>
-      <c r="AF22" s="96"/>
-      <c r="AG22" s="96"/>
-      <c r="AH22" s="96"/>
-      <c r="AI22" s="96"/>
-      <c r="AJ22" s="96"/>
-      <c r="AK22" s="96"/>
-      <c r="AL22" s="96"/>
-      <c r="AM22" s="96"/>
-      <c r="AN22" s="96"/>
-      <c r="AO22" s="96"/>
-      <c r="AP22" s="96"/>
-      <c r="AQ22" s="96"/>
-      <c r="AR22" s="96"/>
-      <c r="AS22" s="96"/>
-      <c r="AT22" s="96"/>
-      <c r="AU22" s="96"/>
-      <c r="AV22" s="96"/>
-      <c r="AW22" s="96"/>
-      <c r="AX22" s="96"/>
-      <c r="AY22" s="97"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="74"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="76"/>
+      <c r="S22" s="76"/>
+      <c r="T22" s="76"/>
+      <c r="U22" s="76"/>
+      <c r="V22" s="76"/>
+      <c r="W22" s="76"/>
+      <c r="X22" s="76"/>
+      <c r="Y22" s="76"/>
+      <c r="Z22" s="76"/>
+      <c r="AA22" s="76"/>
+      <c r="AB22" s="76"/>
+      <c r="AC22" s="76"/>
+      <c r="AD22" s="76"/>
+      <c r="AE22" s="76"/>
+      <c r="AF22" s="76"/>
+      <c r="AG22" s="76"/>
+      <c r="AH22" s="76"/>
+      <c r="AI22" s="76"/>
+      <c r="AJ22" s="76"/>
+      <c r="AK22" s="76"/>
+      <c r="AL22" s="76"/>
+      <c r="AM22" s="76"/>
+      <c r="AN22" s="76"/>
+      <c r="AO22" s="76"/>
+      <c r="AP22" s="76"/>
+      <c r="AQ22" s="76"/>
+      <c r="AR22" s="76"/>
+      <c r="AS22" s="76"/>
+      <c r="AT22" s="76"/>
+      <c r="AU22" s="76"/>
+      <c r="AV22" s="76"/>
+      <c r="AW22" s="76"/>
+      <c r="AX22" s="76"/>
+      <c r="AY22" s="77"/>
       <c r="AZ22" s="12"/>
     </row>
     <row r="23" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1">
       <c r="A23" s="9"/>
-      <c r="B23" s="89"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="93"/>
-      <c r="I23" s="93"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="100"/>
-      <c r="M23" s="100"/>
-      <c r="N23" s="100"/>
-      <c r="O23" s="100"/>
-      <c r="P23" s="101"/>
-      <c r="Q23" s="98"/>
-      <c r="R23" s="96"/>
-      <c r="S23" s="96"/>
-      <c r="T23" s="96"/>
-      <c r="U23" s="96"/>
-      <c r="V23" s="96"/>
-      <c r="W23" s="96"/>
-      <c r="X23" s="96"/>
-      <c r="Y23" s="96"/>
-      <c r="Z23" s="96"/>
-      <c r="AA23" s="96"/>
-      <c r="AB23" s="96"/>
-      <c r="AC23" s="96"/>
-      <c r="AD23" s="96"/>
-      <c r="AE23" s="96"/>
-      <c r="AF23" s="96"/>
-      <c r="AG23" s="96"/>
-      <c r="AH23" s="96"/>
-      <c r="AI23" s="96"/>
-      <c r="AJ23" s="96"/>
-      <c r="AK23" s="96"/>
-      <c r="AL23" s="96"/>
-      <c r="AM23" s="96"/>
-      <c r="AN23" s="96"/>
-      <c r="AO23" s="96"/>
-      <c r="AP23" s="96"/>
-      <c r="AQ23" s="96"/>
-      <c r="AR23" s="96"/>
-      <c r="AS23" s="96"/>
-      <c r="AT23" s="96"/>
-      <c r="AU23" s="96"/>
-      <c r="AV23" s="96"/>
-      <c r="AW23" s="96"/>
-      <c r="AX23" s="96"/>
-      <c r="AY23" s="97"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="73"/>
+      <c r="P23" s="74"/>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="76"/>
+      <c r="S23" s="76"/>
+      <c r="T23" s="76"/>
+      <c r="U23" s="76"/>
+      <c r="V23" s="76"/>
+      <c r="W23" s="76"/>
+      <c r="X23" s="76"/>
+      <c r="Y23" s="76"/>
+      <c r="Z23" s="76"/>
+      <c r="AA23" s="76"/>
+      <c r="AB23" s="76"/>
+      <c r="AC23" s="76"/>
+      <c r="AD23" s="76"/>
+      <c r="AE23" s="76"/>
+      <c r="AF23" s="76"/>
+      <c r="AG23" s="76"/>
+      <c r="AH23" s="76"/>
+      <c r="AI23" s="76"/>
+      <c r="AJ23" s="76"/>
+      <c r="AK23" s="76"/>
+      <c r="AL23" s="76"/>
+      <c r="AM23" s="76"/>
+      <c r="AN23" s="76"/>
+      <c r="AO23" s="76"/>
+      <c r="AP23" s="76"/>
+      <c r="AQ23" s="76"/>
+      <c r="AR23" s="76"/>
+      <c r="AS23" s="76"/>
+      <c r="AT23" s="76"/>
+      <c r="AU23" s="76"/>
+      <c r="AV23" s="76"/>
+      <c r="AW23" s="76"/>
+      <c r="AX23" s="76"/>
+      <c r="AY23" s="77"/>
       <c r="AZ23" s="12"/>
     </row>
     <row r="24" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1">
       <c r="A24" s="9"/>
-      <c r="B24" s="89"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="93"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="100"/>
-      <c r="M24" s="100"/>
-      <c r="N24" s="100"/>
-      <c r="O24" s="100"/>
-      <c r="P24" s="101"/>
-      <c r="Q24" s="98"/>
-      <c r="R24" s="96"/>
-      <c r="S24" s="96"/>
-      <c r="T24" s="96"/>
-      <c r="U24" s="96"/>
-      <c r="V24" s="96"/>
-      <c r="W24" s="96"/>
-      <c r="X24" s="96"/>
-      <c r="Y24" s="96"/>
-      <c r="Z24" s="96"/>
-      <c r="AA24" s="96"/>
-      <c r="AB24" s="96"/>
-      <c r="AC24" s="96"/>
-      <c r="AD24" s="96"/>
-      <c r="AE24" s="96"/>
-      <c r="AF24" s="96"/>
-      <c r="AG24" s="96"/>
-      <c r="AH24" s="96"/>
-      <c r="AI24" s="96"/>
-      <c r="AJ24" s="96"/>
-      <c r="AK24" s="96"/>
-      <c r="AL24" s="96"/>
-      <c r="AM24" s="96"/>
-      <c r="AN24" s="96"/>
-      <c r="AO24" s="96"/>
-      <c r="AP24" s="96"/>
-      <c r="AQ24" s="96"/>
-      <c r="AR24" s="96"/>
-      <c r="AS24" s="96"/>
-      <c r="AT24" s="96"/>
-      <c r="AU24" s="96"/>
-      <c r="AV24" s="96"/>
-      <c r="AW24" s="96"/>
-      <c r="AX24" s="96"/>
-      <c r="AY24" s="97"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="73"/>
+      <c r="P24" s="74"/>
+      <c r="Q24" s="75"/>
+      <c r="R24" s="76"/>
+      <c r="S24" s="76"/>
+      <c r="T24" s="76"/>
+      <c r="U24" s="76"/>
+      <c r="V24" s="76"/>
+      <c r="W24" s="76"/>
+      <c r="X24" s="76"/>
+      <c r="Y24" s="76"/>
+      <c r="Z24" s="76"/>
+      <c r="AA24" s="76"/>
+      <c r="AB24" s="76"/>
+      <c r="AC24" s="76"/>
+      <c r="AD24" s="76"/>
+      <c r="AE24" s="76"/>
+      <c r="AF24" s="76"/>
+      <c r="AG24" s="76"/>
+      <c r="AH24" s="76"/>
+      <c r="AI24" s="76"/>
+      <c r="AJ24" s="76"/>
+      <c r="AK24" s="76"/>
+      <c r="AL24" s="76"/>
+      <c r="AM24" s="76"/>
+      <c r="AN24" s="76"/>
+      <c r="AO24" s="76"/>
+      <c r="AP24" s="76"/>
+      <c r="AQ24" s="76"/>
+      <c r="AR24" s="76"/>
+      <c r="AS24" s="76"/>
+      <c r="AT24" s="76"/>
+      <c r="AU24" s="76"/>
+      <c r="AV24" s="76"/>
+      <c r="AW24" s="76"/>
+      <c r="AX24" s="76"/>
+      <c r="AY24" s="77"/>
       <c r="AZ24" s="12"/>
     </row>
     <row r="25" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1">
       <c r="A25" s="9"/>
-      <c r="B25" s="89"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="100"/>
-      <c r="M25" s="100"/>
-      <c r="N25" s="100"/>
-      <c r="O25" s="100"/>
-      <c r="P25" s="101"/>
-      <c r="Q25" s="98"/>
-      <c r="R25" s="96"/>
-      <c r="S25" s="96"/>
-      <c r="T25" s="96"/>
-      <c r="U25" s="96"/>
-      <c r="V25" s="96"/>
-      <c r="W25" s="96"/>
-      <c r="X25" s="96"/>
-      <c r="Y25" s="96"/>
-      <c r="Z25" s="96"/>
-      <c r="AA25" s="96"/>
-      <c r="AB25" s="96"/>
-      <c r="AC25" s="96"/>
-      <c r="AD25" s="96"/>
-      <c r="AE25" s="96"/>
-      <c r="AF25" s="96"/>
-      <c r="AG25" s="96"/>
-      <c r="AH25" s="96"/>
-      <c r="AI25" s="96"/>
-      <c r="AJ25" s="96"/>
-      <c r="AK25" s="96"/>
-      <c r="AL25" s="96"/>
-      <c r="AM25" s="96"/>
-      <c r="AN25" s="96"/>
-      <c r="AO25" s="96"/>
-      <c r="AP25" s="96"/>
-      <c r="AQ25" s="96"/>
-      <c r="AR25" s="96"/>
-      <c r="AS25" s="96"/>
-      <c r="AT25" s="96"/>
-      <c r="AU25" s="96"/>
-      <c r="AV25" s="96"/>
-      <c r="AW25" s="96"/>
-      <c r="AX25" s="96"/>
-      <c r="AY25" s="97"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="70"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="74"/>
+      <c r="Q25" s="75"/>
+      <c r="R25" s="76"/>
+      <c r="S25" s="76"/>
+      <c r="T25" s="76"/>
+      <c r="U25" s="76"/>
+      <c r="V25" s="76"/>
+      <c r="W25" s="76"/>
+      <c r="X25" s="76"/>
+      <c r="Y25" s="76"/>
+      <c r="Z25" s="76"/>
+      <c r="AA25" s="76"/>
+      <c r="AB25" s="76"/>
+      <c r="AC25" s="76"/>
+      <c r="AD25" s="76"/>
+      <c r="AE25" s="76"/>
+      <c r="AF25" s="76"/>
+      <c r="AG25" s="76"/>
+      <c r="AH25" s="76"/>
+      <c r="AI25" s="76"/>
+      <c r="AJ25" s="76"/>
+      <c r="AK25" s="76"/>
+      <c r="AL25" s="76"/>
+      <c r="AM25" s="76"/>
+      <c r="AN25" s="76"/>
+      <c r="AO25" s="76"/>
+      <c r="AP25" s="76"/>
+      <c r="AQ25" s="76"/>
+      <c r="AR25" s="76"/>
+      <c r="AS25" s="76"/>
+      <c r="AT25" s="76"/>
+      <c r="AU25" s="76"/>
+      <c r="AV25" s="76"/>
+      <c r="AW25" s="76"/>
+      <c r="AX25" s="76"/>
+      <c r="AY25" s="77"/>
       <c r="AZ25" s="12"/>
     </row>
     <row r="26" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1">
       <c r="A26" s="9"/>
-      <c r="B26" s="102"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="106"/>
-      <c r="J26" s="107"/>
-      <c r="K26" s="108"/>
-      <c r="L26" s="109"/>
-      <c r="M26" s="109"/>
-      <c r="N26" s="109"/>
-      <c r="O26" s="109"/>
-      <c r="P26" s="110"/>
-      <c r="Q26" s="111"/>
-      <c r="R26" s="112"/>
-      <c r="S26" s="112"/>
-      <c r="T26" s="112"/>
-      <c r="U26" s="112"/>
-      <c r="V26" s="112"/>
-      <c r="W26" s="112"/>
-      <c r="X26" s="112"/>
-      <c r="Y26" s="112"/>
-      <c r="Z26" s="112"/>
-      <c r="AA26" s="112"/>
-      <c r="AB26" s="112"/>
-      <c r="AC26" s="112"/>
-      <c r="AD26" s="112"/>
-      <c r="AE26" s="112"/>
-      <c r="AF26" s="112"/>
-      <c r="AG26" s="112"/>
-      <c r="AH26" s="112"/>
-      <c r="AI26" s="112"/>
-      <c r="AJ26" s="112"/>
-      <c r="AK26" s="112"/>
-      <c r="AL26" s="112"/>
-      <c r="AM26" s="112"/>
-      <c r="AN26" s="112"/>
-      <c r="AO26" s="112"/>
-      <c r="AP26" s="112"/>
-      <c r="AQ26" s="112"/>
-      <c r="AR26" s="112"/>
-      <c r="AS26" s="112"/>
-      <c r="AT26" s="112"/>
-      <c r="AU26" s="112"/>
-      <c r="AV26" s="112"/>
-      <c r="AW26" s="112"/>
-      <c r="AX26" s="112"/>
-      <c r="AY26" s="113"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="62"/>
+      <c r="Q26" s="63"/>
+      <c r="R26" s="64"/>
+      <c r="S26" s="64"/>
+      <c r="T26" s="64"/>
+      <c r="U26" s="64"/>
+      <c r="V26" s="64"/>
+      <c r="W26" s="64"/>
+      <c r="X26" s="64"/>
+      <c r="Y26" s="64"/>
+      <c r="Z26" s="64"/>
+      <c r="AA26" s="64"/>
+      <c r="AB26" s="64"/>
+      <c r="AC26" s="64"/>
+      <c r="AD26" s="64"/>
+      <c r="AE26" s="64"/>
+      <c r="AF26" s="64"/>
+      <c r="AG26" s="64"/>
+      <c r="AH26" s="64"/>
+      <c r="AI26" s="64"/>
+      <c r="AJ26" s="64"/>
+      <c r="AK26" s="64"/>
+      <c r="AL26" s="64"/>
+      <c r="AM26" s="64"/>
+      <c r="AN26" s="64"/>
+      <c r="AO26" s="64"/>
+      <c r="AP26" s="64"/>
+      <c r="AQ26" s="64"/>
+      <c r="AR26" s="64"/>
+      <c r="AS26" s="64"/>
+      <c r="AT26" s="64"/>
+      <c r="AU26" s="64"/>
+      <c r="AV26" s="64"/>
+      <c r="AW26" s="64"/>
+      <c r="AX26" s="64"/>
+      <c r="AY26" s="65"/>
       <c r="AZ26" s="13"/>
     </row>
     <row r="27" spans="1:52" ht="13.5" customHeight="1">
@@ -3322,6 +3342,91 @@
     </row>
   </sheetData>
   <mergeCells count="97">
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S1:AF1"/>
+    <mergeCell ref="AG1:AL1"/>
+    <mergeCell ref="AM1:AR1"/>
+    <mergeCell ref="AX1:AZ1"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="S2:AF2"/>
+    <mergeCell ref="AG2:AL3"/>
+    <mergeCell ref="AM2:AR3"/>
+    <mergeCell ref="AS2:AW3"/>
+    <mergeCell ref="AX2:AZ3"/>
+    <mergeCell ref="AS1:AW1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="S3:AF3"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="K7:P7"/>
+    <mergeCell ref="Q7:AY7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="K8:P8"/>
+    <mergeCell ref="Q8:AY8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="K9:P9"/>
+    <mergeCell ref="Q9:AY9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="K10:P10"/>
+    <mergeCell ref="Q10:AY10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="K11:P11"/>
+    <mergeCell ref="Q11:AY11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="K12:P12"/>
+    <mergeCell ref="Q12:AY12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="K13:P13"/>
+    <mergeCell ref="Q13:AY13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="K14:P14"/>
+    <mergeCell ref="Q14:AY14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="K15:P15"/>
+    <mergeCell ref="Q15:AY15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="K16:P16"/>
+    <mergeCell ref="Q16:AY16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="K17:P17"/>
+    <mergeCell ref="Q17:AY17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="K18:P18"/>
+    <mergeCell ref="Q18:AY18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="K19:P19"/>
+    <mergeCell ref="Q19:AY19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="K20:P20"/>
+    <mergeCell ref="Q20:AY20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="K21:P21"/>
+    <mergeCell ref="Q21:AY21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="K22:P22"/>
+    <mergeCell ref="Q22:AY22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="K23:P23"/>
+    <mergeCell ref="Q23:AY23"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="E26:J26"/>
     <mergeCell ref="K26:P26"/>
@@ -3334,91 +3439,6 @@
     <mergeCell ref="E25:J25"/>
     <mergeCell ref="K25:P25"/>
     <mergeCell ref="Q25:AY25"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="K22:P22"/>
-    <mergeCell ref="Q22:AY22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="K23:P23"/>
-    <mergeCell ref="Q23:AY23"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="K20:P20"/>
-    <mergeCell ref="Q20:AY20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="K21:P21"/>
-    <mergeCell ref="Q21:AY21"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:J18"/>
-    <mergeCell ref="K18:P18"/>
-    <mergeCell ref="Q18:AY18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="K19:P19"/>
-    <mergeCell ref="Q19:AY19"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="K16:P16"/>
-    <mergeCell ref="Q16:AY16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:J17"/>
-    <mergeCell ref="K17:P17"/>
-    <mergeCell ref="Q17:AY17"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="K14:P14"/>
-    <mergeCell ref="Q14:AY14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="K15:P15"/>
-    <mergeCell ref="Q15:AY15"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="K12:P12"/>
-    <mergeCell ref="Q12:AY12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="K13:P13"/>
-    <mergeCell ref="Q13:AY13"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="K10:P10"/>
-    <mergeCell ref="Q10:AY10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="K11:P11"/>
-    <mergeCell ref="Q11:AY11"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="K8:P8"/>
-    <mergeCell ref="Q8:AY8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="K9:P9"/>
-    <mergeCell ref="Q9:AY9"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="S3:AF3"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="K7:P7"/>
-    <mergeCell ref="Q7:AY7"/>
-    <mergeCell ref="AX1:AZ1"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="S2:AF2"/>
-    <mergeCell ref="AG2:AL3"/>
-    <mergeCell ref="AM2:AR3"/>
-    <mergeCell ref="AS2:AW3"/>
-    <mergeCell ref="AX2:AZ3"/>
-    <mergeCell ref="AS1:AW1"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="S1:AF1"/>
-    <mergeCell ref="AG1:AL1"/>
-    <mergeCell ref="AM1:AR1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>
@@ -3438,10 +3458,10 @@
   </sheetPr>
   <dimension ref="A1:BB56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5" customHeight="1"/>
@@ -3450,201 +3470,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" s="1" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A1" s="54" t="str">
+      <c r="A1" s="109" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>画面・機能一覧</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="58" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="59" t="str">
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="113" t="str">
         <f>設定情報!$C$2</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T1" s="59"/>
-      <c r="U1" s="59"/>
-      <c r="V1" s="59"/>
-      <c r="W1" s="59"/>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="59"/>
-      <c r="AE1" s="59"/>
-      <c r="AF1" s="59"/>
-      <c r="AG1" s="58" t="s">
+      <c r="T1" s="113"/>
+      <c r="U1" s="113"/>
+      <c r="V1" s="113"/>
+      <c r="W1" s="113"/>
+      <c r="X1" s="113"/>
+      <c r="Y1" s="113"/>
+      <c r="Z1" s="113"/>
+      <c r="AA1" s="113"/>
+      <c r="AB1" s="113"/>
+      <c r="AC1" s="113"/>
+      <c r="AD1" s="113"/>
+      <c r="AE1" s="113"/>
+      <c r="AF1" s="113"/>
+      <c r="AG1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="58"/>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="58"/>
-      <c r="AL1" s="58"/>
-      <c r="AM1" s="58" t="s">
+      <c r="AH1" s="98"/>
+      <c r="AI1" s="98"/>
+      <c r="AJ1" s="98"/>
+      <c r="AK1" s="98"/>
+      <c r="AL1" s="98"/>
+      <c r="AM1" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="58"/>
-      <c r="AO1" s="58"/>
-      <c r="AP1" s="58"/>
-      <c r="AQ1" s="58"/>
-      <c r="AR1" s="58"/>
-      <c r="AS1" s="58" t="s">
+      <c r="AN1" s="98"/>
+      <c r="AO1" s="98"/>
+      <c r="AP1" s="98"/>
+      <c r="AQ1" s="98"/>
+      <c r="AR1" s="98"/>
+      <c r="AS1" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="AT1" s="58"/>
-      <c r="AU1" s="58"/>
-      <c r="AV1" s="58"/>
-      <c r="AW1" s="58"/>
-      <c r="AX1" s="58" t="s">
+      <c r="AT1" s="98"/>
+      <c r="AU1" s="98"/>
+      <c r="AV1" s="98"/>
+      <c r="AW1" s="98"/>
+      <c r="AX1" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="AY1" s="58"/>
+      <c r="AY1" s="98"/>
       <c r="AZ1" s="114"/>
     </row>
     <row r="2" spans="1:54" s="1" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A2" s="56"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="61" t="s">
+      <c r="A2" s="111"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="62" t="str">
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="101" t="str">
         <f>設定情報!$C$3</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="62"/>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62"/>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="62"/>
-      <c r="AG2" s="63">
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="101"/>
+      <c r="X2" s="101"/>
+      <c r="Y2" s="101"/>
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="101"/>
+      <c r="AB2" s="101"/>
+      <c r="AC2" s="101"/>
+      <c r="AD2" s="101"/>
+      <c r="AE2" s="101"/>
+      <c r="AF2" s="101"/>
+      <c r="AG2" s="102">
         <v>42591</v>
       </c>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
+      <c r="AH2" s="102"/>
+      <c r="AI2" s="102"/>
+      <c r="AJ2" s="102"/>
+      <c r="AK2" s="102"/>
+      <c r="AL2" s="102"/>
       <c r="AM2" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="AN2" s="62"/>
-      <c r="AO2" s="62"/>
-      <c r="AP2" s="62"/>
-      <c r="AQ2" s="62"/>
-      <c r="AR2" s="62"/>
-      <c r="AS2" s="67"/>
-      <c r="AT2" s="67"/>
-      <c r="AU2" s="67"/>
-      <c r="AV2" s="67"/>
-      <c r="AW2" s="67"/>
-      <c r="AX2" s="62"/>
-      <c r="AY2" s="62"/>
-      <c r="AZ2" s="69"/>
+      <c r="AN2" s="101"/>
+      <c r="AO2" s="101"/>
+      <c r="AP2" s="101"/>
+      <c r="AQ2" s="101"/>
+      <c r="AR2" s="101"/>
+      <c r="AS2" s="105"/>
+      <c r="AT2" s="105"/>
+      <c r="AU2" s="105"/>
+      <c r="AV2" s="105"/>
+      <c r="AW2" s="105"/>
+      <c r="AX2" s="101"/>
+      <c r="AY2" s="101"/>
+      <c r="AZ2" s="107"/>
     </row>
     <row r="3" spans="1:54" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="66" t="str">
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="91" t="str">
         <f>設定情報!$C$4</f>
         <v>-</v>
       </c>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="72" t="s">
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="66" t="str">
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="91" t="str">
         <f>設定情報!$C$5</f>
         <v>画面／機能一覧</v>
       </c>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="64"/>
-      <c r="AH3" s="64"/>
-      <c r="AI3" s="64"/>
-      <c r="AJ3" s="64"/>
-      <c r="AK3" s="64"/>
-      <c r="AL3" s="64"/>
-      <c r="AM3" s="66"/>
-      <c r="AN3" s="66"/>
-      <c r="AO3" s="66"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="66"/>
-      <c r="AR3" s="66"/>
-      <c r="AS3" s="68"/>
-      <c r="AT3" s="68"/>
-      <c r="AU3" s="68"/>
-      <c r="AV3" s="68"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="66"/>
-      <c r="AY3" s="66"/>
-      <c r="AZ3" s="70"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="91"/>
+      <c r="AF3" s="91"/>
+      <c r="AG3" s="103"/>
+      <c r="AH3" s="103"/>
+      <c r="AI3" s="103"/>
+      <c r="AJ3" s="103"/>
+      <c r="AK3" s="103"/>
+      <c r="AL3" s="103"/>
+      <c r="AM3" s="91"/>
+      <c r="AN3" s="91"/>
+      <c r="AO3" s="91"/>
+      <c r="AP3" s="91"/>
+      <c r="AQ3" s="91"/>
+      <c r="AR3" s="91"/>
+      <c r="AS3" s="106"/>
+      <c r="AT3" s="106"/>
+      <c r="AU3" s="106"/>
+      <c r="AV3" s="106"/>
+      <c r="AW3" s="106"/>
+      <c r="AX3" s="91"/>
+      <c r="AY3" s="91"/>
+      <c r="AZ3" s="108"/>
     </row>
     <row r="4" spans="1:54" s="21" customFormat="1" ht="13.5" customHeight="1">
       <c r="A4" s="27" t="s">
@@ -4097,14 +4117,14 @@
       <c r="E11" s="48"/>
       <c r="F11" s="48"/>
       <c r="G11" s="46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H11" s="48"/>
       <c r="I11" s="48"/>
       <c r="J11" s="48"/>
       <c r="K11" s="48"/>
       <c r="L11" s="43" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="M11" s="44"/>
       <c r="N11" s="44"/>
@@ -4115,7 +4135,7 @@
       <c r="S11" s="44"/>
       <c r="T11" s="44"/>
       <c r="U11" s="46" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="V11" s="44"/>
       <c r="W11" s="44"/>
@@ -4169,7 +4189,7 @@
       <c r="J12" s="48"/>
       <c r="K12" s="48"/>
       <c r="L12" s="43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M12" s="44"/>
       <c r="N12" s="44"/>
@@ -4180,7 +4200,7 @@
       <c r="S12" s="44"/>
       <c r="T12" s="44"/>
       <c r="U12" s="46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V12" s="44"/>
       <c r="W12" s="44"/>
@@ -4222,19 +4242,19 @@
       <c r="B13" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
       <c r="G13" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
       <c r="L13" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M13" s="44"/>
       <c r="N13" s="44"/>
@@ -4245,7 +4265,7 @@
       <c r="S13" s="44"/>
       <c r="T13" s="44"/>
       <c r="U13" s="46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="V13" s="44"/>
       <c r="W13" s="44"/>
@@ -4299,7 +4319,7 @@
       <c r="J14" s="44"/>
       <c r="K14" s="44"/>
       <c r="L14" s="43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M14" s="44"/>
       <c r="N14" s="44"/>
@@ -4310,7 +4330,7 @@
       <c r="S14" s="44"/>
       <c r="T14" s="44"/>
       <c r="U14" s="46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V14" s="44"/>
       <c r="W14" s="44"/>
@@ -4364,7 +4384,7 @@
       <c r="J15" s="44"/>
       <c r="K15" s="44"/>
       <c r="L15" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M15" s="44"/>
       <c r="N15" s="44"/>
@@ -4375,7 +4395,7 @@
       <c r="S15" s="44"/>
       <c r="T15" s="44"/>
       <c r="U15" s="46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V15" s="44"/>
       <c r="W15" s="44"/>
@@ -4415,21 +4435,21 @@
         <v>10</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="C16" s="44"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
       <c r="G16" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
+        <v>44</v>
+      </c>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
       <c r="L16" s="43" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="M16" s="44"/>
       <c r="N16" s="44"/>
@@ -4440,7 +4460,7 @@
       <c r="S16" s="44"/>
       <c r="T16" s="44"/>
       <c r="U16" s="46" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="V16" s="44"/>
       <c r="W16" s="44"/>
@@ -4475,21 +4495,27 @@
       <c r="AZ16" s="47"/>
     </row>
     <row r="17" spans="1:54" ht="13.5" customHeight="1">
-      <c r="A17" s="37" t="str">
-        <f>IF(L17="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
-        <v/>
-      </c>
-      <c r="B17" s="43"/>
+      <c r="A17" s="37">
+        <f ca="1">IF(L17="","",MAX(A$1:INDEX(A:A,ROW()-1,0))+1)</f>
+        <v>11</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>54</v>
+      </c>
       <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="43"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="43" t="s">
+        <v>57</v>
+      </c>
       <c r="M17" s="44"/>
       <c r="N17" s="44"/>
       <c r="O17" s="44"/>
@@ -4498,7 +4524,9 @@
       <c r="R17" s="44"/>
       <c r="S17" s="44"/>
       <c r="T17" s="44"/>
-      <c r="U17" s="46"/>
+      <c r="U17" s="46" t="s">
+        <v>56</v>
+      </c>
       <c r="V17" s="44"/>
       <c r="W17" s="44"/>
       <c r="X17" s="44"/>
@@ -6775,6 +6803,11 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="17">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="S3:AF3"/>
+    <mergeCell ref="A1:M2"/>
     <mergeCell ref="AX1:AZ1"/>
     <mergeCell ref="N2:R2"/>
     <mergeCell ref="S2:AF2"/>
@@ -6787,11 +6820,6 @@
     <mergeCell ref="AG1:AL1"/>
     <mergeCell ref="AM1:AR1"/>
     <mergeCell ref="AS1:AW1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="S3:AF3"/>
-    <mergeCell ref="A1:M2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.59055118110236227" footer="0.19685039370078741"/>

--- a/設計書/02_基本設計（外部設計）/画面／機能一覧.xlsx
+++ b/設計書/02_基本設計（外部設計）/画面／機能一覧.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="66">
   <si>
     <t>プロジェクト</t>
   </si>
@@ -413,6 +413,48 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>申請者</t>
+    <rPh sb="0" eb="3">
+      <t>シンセイシャ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>管理者</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>承認者</t>
+    <rPh sb="0" eb="2">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>利用役割</t>
+    <rPh sb="0" eb="2">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヤクワリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -531,7 +573,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -1086,6 +1128,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1110,7 +1224,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1255,6 +1369,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="48" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="49" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="50" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="51" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="3" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1764,7 +1902,7 @@
   </sheetPr>
   <dimension ref="A1:AZ28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G40" sqref="G40"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -1776,201 +1914,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A1" s="109" t="str">
+      <c r="A1" s="117" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>改訂履歴</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="98" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="113" t="str">
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="121" t="str">
         <f>設定情報!$C$2</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
-      <c r="V1" s="113"/>
-      <c r="W1" s="113"/>
-      <c r="X1" s="113"/>
-      <c r="Y1" s="113"/>
-      <c r="Z1" s="113"/>
-      <c r="AA1" s="113"/>
-      <c r="AB1" s="113"/>
-      <c r="AC1" s="113"/>
-      <c r="AD1" s="113"/>
-      <c r="AE1" s="113"/>
-      <c r="AF1" s="113"/>
-      <c r="AG1" s="98" t="s">
+      <c r="T1" s="121"/>
+      <c r="U1" s="121"/>
+      <c r="V1" s="121"/>
+      <c r="W1" s="121"/>
+      <c r="X1" s="121"/>
+      <c r="Y1" s="121"/>
+      <c r="Z1" s="121"/>
+      <c r="AA1" s="121"/>
+      <c r="AB1" s="121"/>
+      <c r="AC1" s="121"/>
+      <c r="AD1" s="121"/>
+      <c r="AE1" s="121"/>
+      <c r="AF1" s="121"/>
+      <c r="AG1" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="98"/>
-      <c r="AI1" s="98"/>
-      <c r="AJ1" s="98"/>
-      <c r="AK1" s="98"/>
-      <c r="AL1" s="98"/>
-      <c r="AM1" s="98" t="s">
+      <c r="AH1" s="106"/>
+      <c r="AI1" s="106"/>
+      <c r="AJ1" s="106"/>
+      <c r="AK1" s="106"/>
+      <c r="AL1" s="106"/>
+      <c r="AM1" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="98"/>
-      <c r="AO1" s="98"/>
-      <c r="AP1" s="98"/>
-      <c r="AQ1" s="98"/>
-      <c r="AR1" s="98"/>
-      <c r="AS1" s="98" t="s">
+      <c r="AN1" s="106"/>
+      <c r="AO1" s="106"/>
+      <c r="AP1" s="106"/>
+      <c r="AQ1" s="106"/>
+      <c r="AR1" s="106"/>
+      <c r="AS1" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="AT1" s="98"/>
-      <c r="AU1" s="98"/>
-      <c r="AV1" s="98"/>
-      <c r="AW1" s="98"/>
-      <c r="AX1" s="98" t="s">
+      <c r="AT1" s="106"/>
+      <c r="AU1" s="106"/>
+      <c r="AV1" s="106"/>
+      <c r="AW1" s="106"/>
+      <c r="AX1" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="AY1" s="98"/>
-      <c r="AZ1" s="99"/>
+      <c r="AY1" s="106"/>
+      <c r="AZ1" s="107"/>
     </row>
     <row r="2" spans="1:52" ht="13.5" customHeight="1">
-      <c r="A2" s="111"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="100" t="s">
+      <c r="A2" s="119"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="100"/>
-      <c r="S2" s="101" t="str">
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="109" t="str">
         <f>設定情報!$C$3</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T2" s="101"/>
-      <c r="U2" s="101"/>
-      <c r="V2" s="101"/>
-      <c r="W2" s="101"/>
-      <c r="X2" s="101"/>
-      <c r="Y2" s="101"/>
-      <c r="Z2" s="101"/>
-      <c r="AA2" s="101"/>
-      <c r="AB2" s="101"/>
-      <c r="AC2" s="101"/>
-      <c r="AD2" s="101"/>
-      <c r="AE2" s="101"/>
-      <c r="AF2" s="101"/>
-      <c r="AG2" s="102">
+      <c r="T2" s="109"/>
+      <c r="U2" s="109"/>
+      <c r="V2" s="109"/>
+      <c r="W2" s="109"/>
+      <c r="X2" s="109"/>
+      <c r="Y2" s="109"/>
+      <c r="Z2" s="109"/>
+      <c r="AA2" s="109"/>
+      <c r="AB2" s="109"/>
+      <c r="AC2" s="109"/>
+      <c r="AD2" s="109"/>
+      <c r="AE2" s="109"/>
+      <c r="AF2" s="109"/>
+      <c r="AG2" s="110">
         <v>42591</v>
       </c>
-      <c r="AH2" s="102"/>
-      <c r="AI2" s="102"/>
-      <c r="AJ2" s="102"/>
-      <c r="AK2" s="102"/>
-      <c r="AL2" s="102"/>
-      <c r="AM2" s="104" t="s">
+      <c r="AH2" s="110"/>
+      <c r="AI2" s="110"/>
+      <c r="AJ2" s="110"/>
+      <c r="AK2" s="110"/>
+      <c r="AL2" s="110"/>
+      <c r="AM2" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="AN2" s="101"/>
-      <c r="AO2" s="101"/>
-      <c r="AP2" s="101"/>
-      <c r="AQ2" s="101"/>
-      <c r="AR2" s="101"/>
-      <c r="AS2" s="105"/>
-      <c r="AT2" s="105"/>
-      <c r="AU2" s="105"/>
-      <c r="AV2" s="105"/>
-      <c r="AW2" s="105"/>
-      <c r="AX2" s="101"/>
-      <c r="AY2" s="101"/>
-      <c r="AZ2" s="107"/>
+      <c r="AN2" s="109"/>
+      <c r="AO2" s="109"/>
+      <c r="AP2" s="109"/>
+      <c r="AQ2" s="109"/>
+      <c r="AR2" s="109"/>
+      <c r="AS2" s="113"/>
+      <c r="AT2" s="113"/>
+      <c r="AU2" s="113"/>
+      <c r="AV2" s="113"/>
+      <c r="AW2" s="113"/>
+      <c r="AX2" s="109"/>
+      <c r="AY2" s="109"/>
+      <c r="AZ2" s="115"/>
     </row>
     <row r="3" spans="1:52" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="91" t="str">
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="99" t="str">
         <f>設定情報!$C$4</f>
         <v>-</v>
       </c>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="90" t="s">
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="91" t="str">
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="98"/>
+      <c r="S3" s="99" t="str">
         <f>設定情報!$C$5</f>
         <v>画面／機能一覧</v>
       </c>
-      <c r="T3" s="91"/>
-      <c r="U3" s="91"/>
-      <c r="V3" s="91"/>
-      <c r="W3" s="91"/>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="91"/>
-      <c r="Z3" s="91"/>
-      <c r="AA3" s="91"/>
-      <c r="AB3" s="91"/>
-      <c r="AC3" s="91"/>
-      <c r="AD3" s="91"/>
-      <c r="AE3" s="91"/>
-      <c r="AF3" s="91"/>
-      <c r="AG3" s="103"/>
-      <c r="AH3" s="103"/>
-      <c r="AI3" s="103"/>
-      <c r="AJ3" s="103"/>
-      <c r="AK3" s="103"/>
-      <c r="AL3" s="103"/>
-      <c r="AM3" s="91"/>
-      <c r="AN3" s="91"/>
-      <c r="AO3" s="91"/>
-      <c r="AP3" s="91"/>
-      <c r="AQ3" s="91"/>
-      <c r="AR3" s="91"/>
-      <c r="AS3" s="106"/>
-      <c r="AT3" s="106"/>
-      <c r="AU3" s="106"/>
-      <c r="AV3" s="106"/>
-      <c r="AW3" s="106"/>
-      <c r="AX3" s="91"/>
-      <c r="AY3" s="91"/>
-      <c r="AZ3" s="108"/>
+      <c r="T3" s="99"/>
+      <c r="U3" s="99"/>
+      <c r="V3" s="99"/>
+      <c r="W3" s="99"/>
+      <c r="X3" s="99"/>
+      <c r="Y3" s="99"/>
+      <c r="Z3" s="99"/>
+      <c r="AA3" s="99"/>
+      <c r="AB3" s="99"/>
+      <c r="AC3" s="99"/>
+      <c r="AD3" s="99"/>
+      <c r="AE3" s="99"/>
+      <c r="AF3" s="99"/>
+      <c r="AG3" s="111"/>
+      <c r="AH3" s="111"/>
+      <c r="AI3" s="111"/>
+      <c r="AJ3" s="111"/>
+      <c r="AK3" s="111"/>
+      <c r="AL3" s="111"/>
+      <c r="AM3" s="99"/>
+      <c r="AN3" s="99"/>
+      <c r="AO3" s="99"/>
+      <c r="AP3" s="99"/>
+      <c r="AQ3" s="99"/>
+      <c r="AR3" s="99"/>
+      <c r="AS3" s="114"/>
+      <c r="AT3" s="114"/>
+      <c r="AU3" s="114"/>
+      <c r="AV3" s="114"/>
+      <c r="AW3" s="114"/>
+      <c r="AX3" s="99"/>
+      <c r="AY3" s="99"/>
+      <c r="AZ3" s="116"/>
     </row>
     <row r="4" spans="1:52" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A4" s="2"/>
@@ -2138,1098 +2276,1098 @@
     </row>
     <row r="7" spans="1:52" s="8" customFormat="1" ht="36" customHeight="1">
       <c r="A7" s="9"/>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="93"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="95" t="s">
+      <c r="C7" s="101"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="96"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="92" t="s">
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="92" t="s">
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
+      <c r="N7" s="101"/>
+      <c r="O7" s="101"/>
+      <c r="P7" s="102"/>
+      <c r="Q7" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="R7" s="93"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="93"/>
-      <c r="U7" s="93"/>
-      <c r="V7" s="93"/>
-      <c r="W7" s="93"/>
-      <c r="X7" s="93"/>
-      <c r="Y7" s="93"/>
-      <c r="Z7" s="93"/>
-      <c r="AA7" s="93"/>
-      <c r="AB7" s="93"/>
-      <c r="AC7" s="93"/>
-      <c r="AD7" s="93"/>
-      <c r="AE7" s="93"/>
-      <c r="AF7" s="93"/>
-      <c r="AG7" s="93"/>
-      <c r="AH7" s="93"/>
-      <c r="AI7" s="93"/>
-      <c r="AJ7" s="93"/>
-      <c r="AK7" s="93"/>
-      <c r="AL7" s="93"/>
-      <c r="AM7" s="93"/>
-      <c r="AN7" s="93"/>
-      <c r="AO7" s="93"/>
-      <c r="AP7" s="93"/>
-      <c r="AQ7" s="93"/>
-      <c r="AR7" s="93"/>
-      <c r="AS7" s="93"/>
-      <c r="AT7" s="93"/>
-      <c r="AU7" s="93"/>
-      <c r="AV7" s="93"/>
-      <c r="AW7" s="93"/>
-      <c r="AX7" s="93"/>
-      <c r="AY7" s="94"/>
+      <c r="R7" s="101"/>
+      <c r="S7" s="101"/>
+      <c r="T7" s="101"/>
+      <c r="U7" s="101"/>
+      <c r="V7" s="101"/>
+      <c r="W7" s="101"/>
+      <c r="X7" s="101"/>
+      <c r="Y7" s="101"/>
+      <c r="Z7" s="101"/>
+      <c r="AA7" s="101"/>
+      <c r="AB7" s="101"/>
+      <c r="AC7" s="101"/>
+      <c r="AD7" s="101"/>
+      <c r="AE7" s="101"/>
+      <c r="AF7" s="101"/>
+      <c r="AG7" s="101"/>
+      <c r="AH7" s="101"/>
+      <c r="AI7" s="101"/>
+      <c r="AJ7" s="101"/>
+      <c r="AK7" s="101"/>
+      <c r="AL7" s="101"/>
+      <c r="AM7" s="101"/>
+      <c r="AN7" s="101"/>
+      <c r="AO7" s="101"/>
+      <c r="AP7" s="101"/>
+      <c r="AQ7" s="101"/>
+      <c r="AR7" s="101"/>
+      <c r="AS7" s="101"/>
+      <c r="AT7" s="101"/>
+      <c r="AU7" s="101"/>
+      <c r="AV7" s="101"/>
+      <c r="AW7" s="101"/>
+      <c r="AX7" s="101"/>
+      <c r="AY7" s="102"/>
       <c r="AZ7" s="11"/>
     </row>
     <row r="8" spans="1:52" s="8" customFormat="1" ht="31.5" hidden="1" customHeight="1">
       <c r="A8" s="9"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="85"/>
-      <c r="P8" s="86"/>
-      <c r="Q8" s="87"/>
-      <c r="R8" s="85"/>
-      <c r="S8" s="85"/>
-      <c r="T8" s="85"/>
-      <c r="U8" s="85"/>
-      <c r="V8" s="85"/>
-      <c r="W8" s="85"/>
-      <c r="X8" s="85"/>
-      <c r="Y8" s="85"/>
-      <c r="Z8" s="85"/>
-      <c r="AA8" s="85"/>
-      <c r="AB8" s="85"/>
-      <c r="AC8" s="85"/>
-      <c r="AD8" s="85"/>
-      <c r="AE8" s="85"/>
-      <c r="AF8" s="85"/>
-      <c r="AG8" s="85"/>
-      <c r="AH8" s="85"/>
-      <c r="AI8" s="85"/>
-      <c r="AJ8" s="85"/>
-      <c r="AK8" s="85"/>
-      <c r="AL8" s="85"/>
-      <c r="AM8" s="85"/>
-      <c r="AN8" s="85"/>
-      <c r="AO8" s="85"/>
-      <c r="AP8" s="85"/>
-      <c r="AQ8" s="85"/>
-      <c r="AR8" s="85"/>
-      <c r="AS8" s="85"/>
-      <c r="AT8" s="85"/>
-      <c r="AU8" s="85"/>
-      <c r="AV8" s="85"/>
-      <c r="AW8" s="85"/>
-      <c r="AX8" s="85"/>
-      <c r="AY8" s="86"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="91"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="93"/>
+      <c r="N8" s="93"/>
+      <c r="O8" s="93"/>
+      <c r="P8" s="94"/>
+      <c r="Q8" s="95"/>
+      <c r="R8" s="93"/>
+      <c r="S8" s="93"/>
+      <c r="T8" s="93"/>
+      <c r="U8" s="93"/>
+      <c r="V8" s="93"/>
+      <c r="W8" s="93"/>
+      <c r="X8" s="93"/>
+      <c r="Y8" s="93"/>
+      <c r="Z8" s="93"/>
+      <c r="AA8" s="93"/>
+      <c r="AB8" s="93"/>
+      <c r="AC8" s="93"/>
+      <c r="AD8" s="93"/>
+      <c r="AE8" s="93"/>
+      <c r="AF8" s="93"/>
+      <c r="AG8" s="93"/>
+      <c r="AH8" s="93"/>
+      <c r="AI8" s="93"/>
+      <c r="AJ8" s="93"/>
+      <c r="AK8" s="93"/>
+      <c r="AL8" s="93"/>
+      <c r="AM8" s="93"/>
+      <c r="AN8" s="93"/>
+      <c r="AO8" s="93"/>
+      <c r="AP8" s="93"/>
+      <c r="AQ8" s="93"/>
+      <c r="AR8" s="93"/>
+      <c r="AS8" s="93"/>
+      <c r="AT8" s="93"/>
+      <c r="AU8" s="93"/>
+      <c r="AV8" s="93"/>
+      <c r="AW8" s="93"/>
+      <c r="AX8" s="93"/>
+      <c r="AY8" s="94"/>
       <c r="AZ8" s="12"/>
     </row>
     <row r="9" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1">
       <c r="A9" s="9"/>
-      <c r="B9" s="66">
+      <c r="B9" s="74">
         <v>1</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="69">
+      <c r="C9" s="75"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="77">
         <v>42591</v>
       </c>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="88" t="s">
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="76"/>
-      <c r="P9" s="77"/>
-      <c r="Q9" s="75" t="s">
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="85"/>
+      <c r="Q9" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="R9" s="76"/>
-      <c r="S9" s="76"/>
-      <c r="T9" s="76"/>
-      <c r="U9" s="76"/>
-      <c r="V9" s="76"/>
-      <c r="W9" s="76"/>
-      <c r="X9" s="76"/>
-      <c r="Y9" s="76"/>
-      <c r="Z9" s="76"/>
-      <c r="AA9" s="76"/>
-      <c r="AB9" s="76"/>
-      <c r="AC9" s="76"/>
-      <c r="AD9" s="76"/>
-      <c r="AE9" s="76"/>
-      <c r="AF9" s="76"/>
-      <c r="AG9" s="76"/>
-      <c r="AH9" s="76"/>
-      <c r="AI9" s="76"/>
-      <c r="AJ9" s="76"/>
-      <c r="AK9" s="76"/>
-      <c r="AL9" s="76"/>
-      <c r="AM9" s="76"/>
-      <c r="AN9" s="76"/>
-      <c r="AO9" s="76"/>
-      <c r="AP9" s="76"/>
-      <c r="AQ9" s="76"/>
-      <c r="AR9" s="76"/>
-      <c r="AS9" s="76"/>
-      <c r="AT9" s="76"/>
-      <c r="AU9" s="76"/>
-      <c r="AV9" s="76"/>
-      <c r="AW9" s="76"/>
-      <c r="AX9" s="76"/>
-      <c r="AY9" s="77"/>
+      <c r="R9" s="84"/>
+      <c r="S9" s="84"/>
+      <c r="T9" s="84"/>
+      <c r="U9" s="84"/>
+      <c r="V9" s="84"/>
+      <c r="W9" s="84"/>
+      <c r="X9" s="84"/>
+      <c r="Y9" s="84"/>
+      <c r="Z9" s="84"/>
+      <c r="AA9" s="84"/>
+      <c r="AB9" s="84"/>
+      <c r="AC9" s="84"/>
+      <c r="AD9" s="84"/>
+      <c r="AE9" s="84"/>
+      <c r="AF9" s="84"/>
+      <c r="AG9" s="84"/>
+      <c r="AH9" s="84"/>
+      <c r="AI9" s="84"/>
+      <c r="AJ9" s="84"/>
+      <c r="AK9" s="84"/>
+      <c r="AL9" s="84"/>
+      <c r="AM9" s="84"/>
+      <c r="AN9" s="84"/>
+      <c r="AO9" s="84"/>
+      <c r="AP9" s="84"/>
+      <c r="AQ9" s="84"/>
+      <c r="AR9" s="84"/>
+      <c r="AS9" s="84"/>
+      <c r="AT9" s="84"/>
+      <c r="AU9" s="84"/>
+      <c r="AV9" s="84"/>
+      <c r="AW9" s="84"/>
+      <c r="AX9" s="84"/>
+      <c r="AY9" s="85"/>
       <c r="AZ9" s="12"/>
     </row>
     <row r="10" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1">
       <c r="A10" s="9"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="75"/>
-      <c r="R10" s="76"/>
-      <c r="S10" s="76"/>
-      <c r="T10" s="76"/>
-      <c r="U10" s="76"/>
-      <c r="V10" s="76"/>
-      <c r="W10" s="76"/>
-      <c r="X10" s="76"/>
-      <c r="Y10" s="76"/>
-      <c r="Z10" s="76"/>
-      <c r="AA10" s="76"/>
-      <c r="AB10" s="76"/>
-      <c r="AC10" s="76"/>
-      <c r="AD10" s="76"/>
-      <c r="AE10" s="76"/>
-      <c r="AF10" s="76"/>
-      <c r="AG10" s="76"/>
-      <c r="AH10" s="76"/>
-      <c r="AI10" s="76"/>
-      <c r="AJ10" s="76"/>
-      <c r="AK10" s="76"/>
-      <c r="AL10" s="76"/>
-      <c r="AM10" s="76"/>
-      <c r="AN10" s="76"/>
-      <c r="AO10" s="76"/>
-      <c r="AP10" s="76"/>
-      <c r="AQ10" s="76"/>
-      <c r="AR10" s="76"/>
-      <c r="AS10" s="76"/>
-      <c r="AT10" s="76"/>
-      <c r="AU10" s="76"/>
-      <c r="AV10" s="76"/>
-      <c r="AW10" s="76"/>
-      <c r="AX10" s="76"/>
-      <c r="AY10" s="77"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="83"/>
+      <c r="R10" s="84"/>
+      <c r="S10" s="84"/>
+      <c r="T10" s="84"/>
+      <c r="U10" s="84"/>
+      <c r="V10" s="84"/>
+      <c r="W10" s="84"/>
+      <c r="X10" s="84"/>
+      <c r="Y10" s="84"/>
+      <c r="Z10" s="84"/>
+      <c r="AA10" s="84"/>
+      <c r="AB10" s="84"/>
+      <c r="AC10" s="84"/>
+      <c r="AD10" s="84"/>
+      <c r="AE10" s="84"/>
+      <c r="AF10" s="84"/>
+      <c r="AG10" s="84"/>
+      <c r="AH10" s="84"/>
+      <c r="AI10" s="84"/>
+      <c r="AJ10" s="84"/>
+      <c r="AK10" s="84"/>
+      <c r="AL10" s="84"/>
+      <c r="AM10" s="84"/>
+      <c r="AN10" s="84"/>
+      <c r="AO10" s="84"/>
+      <c r="AP10" s="84"/>
+      <c r="AQ10" s="84"/>
+      <c r="AR10" s="84"/>
+      <c r="AS10" s="84"/>
+      <c r="AT10" s="84"/>
+      <c r="AU10" s="84"/>
+      <c r="AV10" s="84"/>
+      <c r="AW10" s="84"/>
+      <c r="AX10" s="84"/>
+      <c r="AY10" s="85"/>
       <c r="AZ10" s="12"/>
     </row>
     <row r="11" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1">
       <c r="A11" s="9"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="74"/>
-      <c r="Q11" s="75"/>
-      <c r="R11" s="76"/>
-      <c r="S11" s="76"/>
-      <c r="T11" s="76"/>
-      <c r="U11" s="76"/>
-      <c r="V11" s="76"/>
-      <c r="W11" s="76"/>
-      <c r="X11" s="76"/>
-      <c r="Y11" s="76"/>
-      <c r="Z11" s="76"/>
-      <c r="AA11" s="76"/>
-      <c r="AB11" s="76"/>
-      <c r="AC11" s="76"/>
-      <c r="AD11" s="76"/>
-      <c r="AE11" s="76"/>
-      <c r="AF11" s="76"/>
-      <c r="AG11" s="76"/>
-      <c r="AH11" s="76"/>
-      <c r="AI11" s="76"/>
-      <c r="AJ11" s="76"/>
-      <c r="AK11" s="76"/>
-      <c r="AL11" s="76"/>
-      <c r="AM11" s="76"/>
-      <c r="AN11" s="76"/>
-      <c r="AO11" s="76"/>
-      <c r="AP11" s="76"/>
-      <c r="AQ11" s="76"/>
-      <c r="AR11" s="76"/>
-      <c r="AS11" s="76"/>
-      <c r="AT11" s="76"/>
-      <c r="AU11" s="76"/>
-      <c r="AV11" s="76"/>
-      <c r="AW11" s="76"/>
-      <c r="AX11" s="76"/>
-      <c r="AY11" s="77"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="83"/>
+      <c r="R11" s="84"/>
+      <c r="S11" s="84"/>
+      <c r="T11" s="84"/>
+      <c r="U11" s="84"/>
+      <c r="V11" s="84"/>
+      <c r="W11" s="84"/>
+      <c r="X11" s="84"/>
+      <c r="Y11" s="84"/>
+      <c r="Z11" s="84"/>
+      <c r="AA11" s="84"/>
+      <c r="AB11" s="84"/>
+      <c r="AC11" s="84"/>
+      <c r="AD11" s="84"/>
+      <c r="AE11" s="84"/>
+      <c r="AF11" s="84"/>
+      <c r="AG11" s="84"/>
+      <c r="AH11" s="84"/>
+      <c r="AI11" s="84"/>
+      <c r="AJ11" s="84"/>
+      <c r="AK11" s="84"/>
+      <c r="AL11" s="84"/>
+      <c r="AM11" s="84"/>
+      <c r="AN11" s="84"/>
+      <c r="AO11" s="84"/>
+      <c r="AP11" s="84"/>
+      <c r="AQ11" s="84"/>
+      <c r="AR11" s="84"/>
+      <c r="AS11" s="84"/>
+      <c r="AT11" s="84"/>
+      <c r="AU11" s="84"/>
+      <c r="AV11" s="84"/>
+      <c r="AW11" s="84"/>
+      <c r="AX11" s="84"/>
+      <c r="AY11" s="85"/>
       <c r="AZ11" s="12"/>
     </row>
     <row r="12" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1">
       <c r="A12" s="9"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="74"/>
-      <c r="Q12" s="75"/>
-      <c r="R12" s="76"/>
-      <c r="S12" s="76"/>
-      <c r="T12" s="76"/>
-      <c r="U12" s="76"/>
-      <c r="V12" s="76"/>
-      <c r="W12" s="76"/>
-      <c r="X12" s="76"/>
-      <c r="Y12" s="76"/>
-      <c r="Z12" s="76"/>
-      <c r="AA12" s="76"/>
-      <c r="AB12" s="76"/>
-      <c r="AC12" s="76"/>
-      <c r="AD12" s="76"/>
-      <c r="AE12" s="76"/>
-      <c r="AF12" s="76"/>
-      <c r="AG12" s="76"/>
-      <c r="AH12" s="76"/>
-      <c r="AI12" s="76"/>
-      <c r="AJ12" s="76"/>
-      <c r="AK12" s="76"/>
-      <c r="AL12" s="76"/>
-      <c r="AM12" s="76"/>
-      <c r="AN12" s="76"/>
-      <c r="AO12" s="76"/>
-      <c r="AP12" s="76"/>
-      <c r="AQ12" s="76"/>
-      <c r="AR12" s="76"/>
-      <c r="AS12" s="76"/>
-      <c r="AT12" s="76"/>
-      <c r="AU12" s="76"/>
-      <c r="AV12" s="76"/>
-      <c r="AW12" s="76"/>
-      <c r="AX12" s="76"/>
-      <c r="AY12" s="77"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="81"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="83"/>
+      <c r="R12" s="84"/>
+      <c r="S12" s="84"/>
+      <c r="T12" s="84"/>
+      <c r="U12" s="84"/>
+      <c r="V12" s="84"/>
+      <c r="W12" s="84"/>
+      <c r="X12" s="84"/>
+      <c r="Y12" s="84"/>
+      <c r="Z12" s="84"/>
+      <c r="AA12" s="84"/>
+      <c r="AB12" s="84"/>
+      <c r="AC12" s="84"/>
+      <c r="AD12" s="84"/>
+      <c r="AE12" s="84"/>
+      <c r="AF12" s="84"/>
+      <c r="AG12" s="84"/>
+      <c r="AH12" s="84"/>
+      <c r="AI12" s="84"/>
+      <c r="AJ12" s="84"/>
+      <c r="AK12" s="84"/>
+      <c r="AL12" s="84"/>
+      <c r="AM12" s="84"/>
+      <c r="AN12" s="84"/>
+      <c r="AO12" s="84"/>
+      <c r="AP12" s="84"/>
+      <c r="AQ12" s="84"/>
+      <c r="AR12" s="84"/>
+      <c r="AS12" s="84"/>
+      <c r="AT12" s="84"/>
+      <c r="AU12" s="84"/>
+      <c r="AV12" s="84"/>
+      <c r="AW12" s="84"/>
+      <c r="AX12" s="84"/>
+      <c r="AY12" s="85"/>
       <c r="AZ12" s="12"/>
     </row>
     <row r="13" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1">
       <c r="A13" s="9"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="74"/>
-      <c r="Q13" s="75"/>
-      <c r="R13" s="76"/>
-      <c r="S13" s="76"/>
-      <c r="T13" s="76"/>
-      <c r="U13" s="76"/>
-      <c r="V13" s="76"/>
-      <c r="W13" s="76"/>
-      <c r="X13" s="76"/>
-      <c r="Y13" s="76"/>
-      <c r="Z13" s="76"/>
-      <c r="AA13" s="76"/>
-      <c r="AB13" s="76"/>
-      <c r="AC13" s="76"/>
-      <c r="AD13" s="76"/>
-      <c r="AE13" s="76"/>
-      <c r="AF13" s="76"/>
-      <c r="AG13" s="76"/>
-      <c r="AH13" s="76"/>
-      <c r="AI13" s="76"/>
-      <c r="AJ13" s="76"/>
-      <c r="AK13" s="76"/>
-      <c r="AL13" s="76"/>
-      <c r="AM13" s="76"/>
-      <c r="AN13" s="76"/>
-      <c r="AO13" s="76"/>
-      <c r="AP13" s="76"/>
-      <c r="AQ13" s="76"/>
-      <c r="AR13" s="76"/>
-      <c r="AS13" s="76"/>
-      <c r="AT13" s="76"/>
-      <c r="AU13" s="76"/>
-      <c r="AV13" s="76"/>
-      <c r="AW13" s="76"/>
-      <c r="AX13" s="76"/>
-      <c r="AY13" s="77"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="81"/>
+      <c r="O13" s="81"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="83"/>
+      <c r="R13" s="84"/>
+      <c r="S13" s="84"/>
+      <c r="T13" s="84"/>
+      <c r="U13" s="84"/>
+      <c r="V13" s="84"/>
+      <c r="W13" s="84"/>
+      <c r="X13" s="84"/>
+      <c r="Y13" s="84"/>
+      <c r="Z13" s="84"/>
+      <c r="AA13" s="84"/>
+      <c r="AB13" s="84"/>
+      <c r="AC13" s="84"/>
+      <c r="AD13" s="84"/>
+      <c r="AE13" s="84"/>
+      <c r="AF13" s="84"/>
+      <c r="AG13" s="84"/>
+      <c r="AH13" s="84"/>
+      <c r="AI13" s="84"/>
+      <c r="AJ13" s="84"/>
+      <c r="AK13" s="84"/>
+      <c r="AL13" s="84"/>
+      <c r="AM13" s="84"/>
+      <c r="AN13" s="84"/>
+      <c r="AO13" s="84"/>
+      <c r="AP13" s="84"/>
+      <c r="AQ13" s="84"/>
+      <c r="AR13" s="84"/>
+      <c r="AS13" s="84"/>
+      <c r="AT13" s="84"/>
+      <c r="AU13" s="84"/>
+      <c r="AV13" s="84"/>
+      <c r="AW13" s="84"/>
+      <c r="AX13" s="84"/>
+      <c r="AY13" s="85"/>
       <c r="AZ13" s="12"/>
     </row>
     <row r="14" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1">
       <c r="A14" s="9"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="75"/>
-      <c r="R14" s="76"/>
-      <c r="S14" s="76"/>
-      <c r="T14" s="76"/>
-      <c r="U14" s="76"/>
-      <c r="V14" s="76"/>
-      <c r="W14" s="76"/>
-      <c r="X14" s="76"/>
-      <c r="Y14" s="76"/>
-      <c r="Z14" s="76"/>
-      <c r="AA14" s="76"/>
-      <c r="AB14" s="76"/>
-      <c r="AC14" s="76"/>
-      <c r="AD14" s="76"/>
-      <c r="AE14" s="76"/>
-      <c r="AF14" s="76"/>
-      <c r="AG14" s="76"/>
-      <c r="AH14" s="76"/>
-      <c r="AI14" s="76"/>
-      <c r="AJ14" s="76"/>
-      <c r="AK14" s="76"/>
-      <c r="AL14" s="76"/>
-      <c r="AM14" s="76"/>
-      <c r="AN14" s="76"/>
-      <c r="AO14" s="76"/>
-      <c r="AP14" s="76"/>
-      <c r="AQ14" s="76"/>
-      <c r="AR14" s="76"/>
-      <c r="AS14" s="76"/>
-      <c r="AT14" s="76"/>
-      <c r="AU14" s="76"/>
-      <c r="AV14" s="76"/>
-      <c r="AW14" s="76"/>
-      <c r="AX14" s="76"/>
-      <c r="AY14" s="77"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="78"/>
+      <c r="I14" s="78"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="80"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="81"/>
+      <c r="N14" s="81"/>
+      <c r="O14" s="81"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="83"/>
+      <c r="R14" s="84"/>
+      <c r="S14" s="84"/>
+      <c r="T14" s="84"/>
+      <c r="U14" s="84"/>
+      <c r="V14" s="84"/>
+      <c r="W14" s="84"/>
+      <c r="X14" s="84"/>
+      <c r="Y14" s="84"/>
+      <c r="Z14" s="84"/>
+      <c r="AA14" s="84"/>
+      <c r="AB14" s="84"/>
+      <c r="AC14" s="84"/>
+      <c r="AD14" s="84"/>
+      <c r="AE14" s="84"/>
+      <c r="AF14" s="84"/>
+      <c r="AG14" s="84"/>
+      <c r="AH14" s="84"/>
+      <c r="AI14" s="84"/>
+      <c r="AJ14" s="84"/>
+      <c r="AK14" s="84"/>
+      <c r="AL14" s="84"/>
+      <c r="AM14" s="84"/>
+      <c r="AN14" s="84"/>
+      <c r="AO14" s="84"/>
+      <c r="AP14" s="84"/>
+      <c r="AQ14" s="84"/>
+      <c r="AR14" s="84"/>
+      <c r="AS14" s="84"/>
+      <c r="AT14" s="84"/>
+      <c r="AU14" s="84"/>
+      <c r="AV14" s="84"/>
+      <c r="AW14" s="84"/>
+      <c r="AX14" s="84"/>
+      <c r="AY14" s="85"/>
       <c r="AZ14" s="12"/>
     </row>
     <row r="15" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1">
       <c r="A15" s="9"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="74"/>
-      <c r="Q15" s="75"/>
-      <c r="R15" s="76"/>
-      <c r="S15" s="76"/>
-      <c r="T15" s="76"/>
-      <c r="U15" s="76"/>
-      <c r="V15" s="76"/>
-      <c r="W15" s="76"/>
-      <c r="X15" s="76"/>
-      <c r="Y15" s="76"/>
-      <c r="Z15" s="76"/>
-      <c r="AA15" s="76"/>
-      <c r="AB15" s="76"/>
-      <c r="AC15" s="76"/>
-      <c r="AD15" s="76"/>
-      <c r="AE15" s="76"/>
-      <c r="AF15" s="76"/>
-      <c r="AG15" s="76"/>
-      <c r="AH15" s="76"/>
-      <c r="AI15" s="76"/>
-      <c r="AJ15" s="76"/>
-      <c r="AK15" s="76"/>
-      <c r="AL15" s="76"/>
-      <c r="AM15" s="76"/>
-      <c r="AN15" s="76"/>
-      <c r="AO15" s="76"/>
-      <c r="AP15" s="76"/>
-      <c r="AQ15" s="76"/>
-      <c r="AR15" s="76"/>
-      <c r="AS15" s="76"/>
-      <c r="AT15" s="76"/>
-      <c r="AU15" s="76"/>
-      <c r="AV15" s="76"/>
-      <c r="AW15" s="76"/>
-      <c r="AX15" s="76"/>
-      <c r="AY15" s="77"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="79"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="81"/>
+      <c r="N15" s="81"/>
+      <c r="O15" s="81"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="83"/>
+      <c r="R15" s="84"/>
+      <c r="S15" s="84"/>
+      <c r="T15" s="84"/>
+      <c r="U15" s="84"/>
+      <c r="V15" s="84"/>
+      <c r="W15" s="84"/>
+      <c r="X15" s="84"/>
+      <c r="Y15" s="84"/>
+      <c r="Z15" s="84"/>
+      <c r="AA15" s="84"/>
+      <c r="AB15" s="84"/>
+      <c r="AC15" s="84"/>
+      <c r="AD15" s="84"/>
+      <c r="AE15" s="84"/>
+      <c r="AF15" s="84"/>
+      <c r="AG15" s="84"/>
+      <c r="AH15" s="84"/>
+      <c r="AI15" s="84"/>
+      <c r="AJ15" s="84"/>
+      <c r="AK15" s="84"/>
+      <c r="AL15" s="84"/>
+      <c r="AM15" s="84"/>
+      <c r="AN15" s="84"/>
+      <c r="AO15" s="84"/>
+      <c r="AP15" s="84"/>
+      <c r="AQ15" s="84"/>
+      <c r="AR15" s="84"/>
+      <c r="AS15" s="84"/>
+      <c r="AT15" s="84"/>
+      <c r="AU15" s="84"/>
+      <c r="AV15" s="84"/>
+      <c r="AW15" s="84"/>
+      <c r="AX15" s="84"/>
+      <c r="AY15" s="85"/>
       <c r="AZ15" s="12"/>
     </row>
     <row r="16" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1">
       <c r="A16" s="9"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="75"/>
-      <c r="R16" s="76"/>
-      <c r="S16" s="76"/>
-      <c r="T16" s="76"/>
-      <c r="U16" s="76"/>
-      <c r="V16" s="76"/>
-      <c r="W16" s="76"/>
-      <c r="X16" s="76"/>
-      <c r="Y16" s="76"/>
-      <c r="Z16" s="76"/>
-      <c r="AA16" s="76"/>
-      <c r="AB16" s="76"/>
-      <c r="AC16" s="76"/>
-      <c r="AD16" s="76"/>
-      <c r="AE16" s="76"/>
-      <c r="AF16" s="76"/>
-      <c r="AG16" s="76"/>
-      <c r="AH16" s="76"/>
-      <c r="AI16" s="76"/>
-      <c r="AJ16" s="76"/>
-      <c r="AK16" s="76"/>
-      <c r="AL16" s="76"/>
-      <c r="AM16" s="76"/>
-      <c r="AN16" s="76"/>
-      <c r="AO16" s="76"/>
-      <c r="AP16" s="76"/>
-      <c r="AQ16" s="76"/>
-      <c r="AR16" s="76"/>
-      <c r="AS16" s="76"/>
-      <c r="AT16" s="76"/>
-      <c r="AU16" s="76"/>
-      <c r="AV16" s="76"/>
-      <c r="AW16" s="76"/>
-      <c r="AX16" s="76"/>
-      <c r="AY16" s="77"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="81"/>
+      <c r="N16" s="81"/>
+      <c r="O16" s="81"/>
+      <c r="P16" s="82"/>
+      <c r="Q16" s="83"/>
+      <c r="R16" s="84"/>
+      <c r="S16" s="84"/>
+      <c r="T16" s="84"/>
+      <c r="U16" s="84"/>
+      <c r="V16" s="84"/>
+      <c r="W16" s="84"/>
+      <c r="X16" s="84"/>
+      <c r="Y16" s="84"/>
+      <c r="Z16" s="84"/>
+      <c r="AA16" s="84"/>
+      <c r="AB16" s="84"/>
+      <c r="AC16" s="84"/>
+      <c r="AD16" s="84"/>
+      <c r="AE16" s="84"/>
+      <c r="AF16" s="84"/>
+      <c r="AG16" s="84"/>
+      <c r="AH16" s="84"/>
+      <c r="AI16" s="84"/>
+      <c r="AJ16" s="84"/>
+      <c r="AK16" s="84"/>
+      <c r="AL16" s="84"/>
+      <c r="AM16" s="84"/>
+      <c r="AN16" s="84"/>
+      <c r="AO16" s="84"/>
+      <c r="AP16" s="84"/>
+      <c r="AQ16" s="84"/>
+      <c r="AR16" s="84"/>
+      <c r="AS16" s="84"/>
+      <c r="AT16" s="84"/>
+      <c r="AU16" s="84"/>
+      <c r="AV16" s="84"/>
+      <c r="AW16" s="84"/>
+      <c r="AX16" s="84"/>
+      <c r="AY16" s="85"/>
       <c r="AZ16" s="12"/>
     </row>
     <row r="17" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1">
       <c r="A17" s="9"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="74"/>
-      <c r="Q17" s="75"/>
-      <c r="R17" s="76"/>
-      <c r="S17" s="76"/>
-      <c r="T17" s="76"/>
-      <c r="U17" s="76"/>
-      <c r="V17" s="76"/>
-      <c r="W17" s="76"/>
-      <c r="X17" s="76"/>
-      <c r="Y17" s="76"/>
-      <c r="Z17" s="76"/>
-      <c r="AA17" s="76"/>
-      <c r="AB17" s="76"/>
-      <c r="AC17" s="76"/>
-      <c r="AD17" s="76"/>
-      <c r="AE17" s="76"/>
-      <c r="AF17" s="76"/>
-      <c r="AG17" s="76"/>
-      <c r="AH17" s="76"/>
-      <c r="AI17" s="76"/>
-      <c r="AJ17" s="76"/>
-      <c r="AK17" s="76"/>
-      <c r="AL17" s="76"/>
-      <c r="AM17" s="76"/>
-      <c r="AN17" s="76"/>
-      <c r="AO17" s="76"/>
-      <c r="AP17" s="76"/>
-      <c r="AQ17" s="76"/>
-      <c r="AR17" s="76"/>
-      <c r="AS17" s="76"/>
-      <c r="AT17" s="76"/>
-      <c r="AU17" s="76"/>
-      <c r="AV17" s="76"/>
-      <c r="AW17" s="76"/>
-      <c r="AX17" s="76"/>
-      <c r="AY17" s="77"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="81"/>
+      <c r="M17" s="81"/>
+      <c r="N17" s="81"/>
+      <c r="O17" s="81"/>
+      <c r="P17" s="82"/>
+      <c r="Q17" s="83"/>
+      <c r="R17" s="84"/>
+      <c r="S17" s="84"/>
+      <c r="T17" s="84"/>
+      <c r="U17" s="84"/>
+      <c r="V17" s="84"/>
+      <c r="W17" s="84"/>
+      <c r="X17" s="84"/>
+      <c r="Y17" s="84"/>
+      <c r="Z17" s="84"/>
+      <c r="AA17" s="84"/>
+      <c r="AB17" s="84"/>
+      <c r="AC17" s="84"/>
+      <c r="AD17" s="84"/>
+      <c r="AE17" s="84"/>
+      <c r="AF17" s="84"/>
+      <c r="AG17" s="84"/>
+      <c r="AH17" s="84"/>
+      <c r="AI17" s="84"/>
+      <c r="AJ17" s="84"/>
+      <c r="AK17" s="84"/>
+      <c r="AL17" s="84"/>
+      <c r="AM17" s="84"/>
+      <c r="AN17" s="84"/>
+      <c r="AO17" s="84"/>
+      <c r="AP17" s="84"/>
+      <c r="AQ17" s="84"/>
+      <c r="AR17" s="84"/>
+      <c r="AS17" s="84"/>
+      <c r="AT17" s="84"/>
+      <c r="AU17" s="84"/>
+      <c r="AV17" s="84"/>
+      <c r="AW17" s="84"/>
+      <c r="AX17" s="84"/>
+      <c r="AY17" s="85"/>
       <c r="AZ17" s="12"/>
     </row>
     <row r="18" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1">
       <c r="A18" s="9"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="73"/>
-      <c r="P18" s="74"/>
-      <c r="Q18" s="75"/>
-      <c r="R18" s="76"/>
-      <c r="S18" s="76"/>
-      <c r="T18" s="76"/>
-      <c r="U18" s="76"/>
-      <c r="V18" s="76"/>
-      <c r="W18" s="76"/>
-      <c r="X18" s="76"/>
-      <c r="Y18" s="76"/>
-      <c r="Z18" s="76"/>
-      <c r="AA18" s="76"/>
-      <c r="AB18" s="76"/>
-      <c r="AC18" s="76"/>
-      <c r="AD18" s="76"/>
-      <c r="AE18" s="76"/>
-      <c r="AF18" s="76"/>
-      <c r="AG18" s="76"/>
-      <c r="AH18" s="76"/>
-      <c r="AI18" s="76"/>
-      <c r="AJ18" s="76"/>
-      <c r="AK18" s="76"/>
-      <c r="AL18" s="76"/>
-      <c r="AM18" s="76"/>
-      <c r="AN18" s="76"/>
-      <c r="AO18" s="76"/>
-      <c r="AP18" s="76"/>
-      <c r="AQ18" s="76"/>
-      <c r="AR18" s="76"/>
-      <c r="AS18" s="76"/>
-      <c r="AT18" s="76"/>
-      <c r="AU18" s="76"/>
-      <c r="AV18" s="76"/>
-      <c r="AW18" s="76"/>
-      <c r="AX18" s="76"/>
-      <c r="AY18" s="77"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="81"/>
+      <c r="M18" s="81"/>
+      <c r="N18" s="81"/>
+      <c r="O18" s="81"/>
+      <c r="P18" s="82"/>
+      <c r="Q18" s="83"/>
+      <c r="R18" s="84"/>
+      <c r="S18" s="84"/>
+      <c r="T18" s="84"/>
+      <c r="U18" s="84"/>
+      <c r="V18" s="84"/>
+      <c r="W18" s="84"/>
+      <c r="X18" s="84"/>
+      <c r="Y18" s="84"/>
+      <c r="Z18" s="84"/>
+      <c r="AA18" s="84"/>
+      <c r="AB18" s="84"/>
+      <c r="AC18" s="84"/>
+      <c r="AD18" s="84"/>
+      <c r="AE18" s="84"/>
+      <c r="AF18" s="84"/>
+      <c r="AG18" s="84"/>
+      <c r="AH18" s="84"/>
+      <c r="AI18" s="84"/>
+      <c r="AJ18" s="84"/>
+      <c r="AK18" s="84"/>
+      <c r="AL18" s="84"/>
+      <c r="AM18" s="84"/>
+      <c r="AN18" s="84"/>
+      <c r="AO18" s="84"/>
+      <c r="AP18" s="84"/>
+      <c r="AQ18" s="84"/>
+      <c r="AR18" s="84"/>
+      <c r="AS18" s="84"/>
+      <c r="AT18" s="84"/>
+      <c r="AU18" s="84"/>
+      <c r="AV18" s="84"/>
+      <c r="AW18" s="84"/>
+      <c r="AX18" s="84"/>
+      <c r="AY18" s="85"/>
       <c r="AZ18" s="12"/>
     </row>
     <row r="19" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1">
       <c r="A19" s="9"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="73"/>
-      <c r="P19" s="74"/>
-      <c r="Q19" s="75"/>
-      <c r="R19" s="76"/>
-      <c r="S19" s="76"/>
-      <c r="T19" s="76"/>
-      <c r="U19" s="76"/>
-      <c r="V19" s="76"/>
-      <c r="W19" s="76"/>
-      <c r="X19" s="76"/>
-      <c r="Y19" s="76"/>
-      <c r="Z19" s="76"/>
-      <c r="AA19" s="76"/>
-      <c r="AB19" s="76"/>
-      <c r="AC19" s="76"/>
-      <c r="AD19" s="76"/>
-      <c r="AE19" s="76"/>
-      <c r="AF19" s="76"/>
-      <c r="AG19" s="76"/>
-      <c r="AH19" s="76"/>
-      <c r="AI19" s="76"/>
-      <c r="AJ19" s="76"/>
-      <c r="AK19" s="76"/>
-      <c r="AL19" s="76"/>
-      <c r="AM19" s="76"/>
-      <c r="AN19" s="76"/>
-      <c r="AO19" s="76"/>
-      <c r="AP19" s="76"/>
-      <c r="AQ19" s="76"/>
-      <c r="AR19" s="76"/>
-      <c r="AS19" s="76"/>
-      <c r="AT19" s="76"/>
-      <c r="AU19" s="76"/>
-      <c r="AV19" s="76"/>
-      <c r="AW19" s="76"/>
-      <c r="AX19" s="76"/>
-      <c r="AY19" s="77"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="81"/>
+      <c r="M19" s="81"/>
+      <c r="N19" s="81"/>
+      <c r="O19" s="81"/>
+      <c r="P19" s="82"/>
+      <c r="Q19" s="83"/>
+      <c r="R19" s="84"/>
+      <c r="S19" s="84"/>
+      <c r="T19" s="84"/>
+      <c r="U19" s="84"/>
+      <c r="V19" s="84"/>
+      <c r="W19" s="84"/>
+      <c r="X19" s="84"/>
+      <c r="Y19" s="84"/>
+      <c r="Z19" s="84"/>
+      <c r="AA19" s="84"/>
+      <c r="AB19" s="84"/>
+      <c r="AC19" s="84"/>
+      <c r="AD19" s="84"/>
+      <c r="AE19" s="84"/>
+      <c r="AF19" s="84"/>
+      <c r="AG19" s="84"/>
+      <c r="AH19" s="84"/>
+      <c r="AI19" s="84"/>
+      <c r="AJ19" s="84"/>
+      <c r="AK19" s="84"/>
+      <c r="AL19" s="84"/>
+      <c r="AM19" s="84"/>
+      <c r="AN19" s="84"/>
+      <c r="AO19" s="84"/>
+      <c r="AP19" s="84"/>
+      <c r="AQ19" s="84"/>
+      <c r="AR19" s="84"/>
+      <c r="AS19" s="84"/>
+      <c r="AT19" s="84"/>
+      <c r="AU19" s="84"/>
+      <c r="AV19" s="84"/>
+      <c r="AW19" s="84"/>
+      <c r="AX19" s="84"/>
+      <c r="AY19" s="85"/>
       <c r="AZ19" s="12"/>
     </row>
     <row r="20" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1">
       <c r="A20" s="9"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="73"/>
-      <c r="P20" s="74"/>
-      <c r="Q20" s="75"/>
-      <c r="R20" s="76"/>
-      <c r="S20" s="76"/>
-      <c r="T20" s="76"/>
-      <c r="U20" s="76"/>
-      <c r="V20" s="76"/>
-      <c r="W20" s="76"/>
-      <c r="X20" s="76"/>
-      <c r="Y20" s="76"/>
-      <c r="Z20" s="76"/>
-      <c r="AA20" s="76"/>
-      <c r="AB20" s="76"/>
-      <c r="AC20" s="76"/>
-      <c r="AD20" s="76"/>
-      <c r="AE20" s="76"/>
-      <c r="AF20" s="76"/>
-      <c r="AG20" s="76"/>
-      <c r="AH20" s="76"/>
-      <c r="AI20" s="76"/>
-      <c r="AJ20" s="76"/>
-      <c r="AK20" s="76"/>
-      <c r="AL20" s="76"/>
-      <c r="AM20" s="76"/>
-      <c r="AN20" s="76"/>
-      <c r="AO20" s="76"/>
-      <c r="AP20" s="76"/>
-      <c r="AQ20" s="76"/>
-      <c r="AR20" s="76"/>
-      <c r="AS20" s="76"/>
-      <c r="AT20" s="76"/>
-      <c r="AU20" s="76"/>
-      <c r="AV20" s="76"/>
-      <c r="AW20" s="76"/>
-      <c r="AX20" s="76"/>
-      <c r="AY20" s="77"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="81"/>
+      <c r="N20" s="81"/>
+      <c r="O20" s="81"/>
+      <c r="P20" s="82"/>
+      <c r="Q20" s="83"/>
+      <c r="R20" s="84"/>
+      <c r="S20" s="84"/>
+      <c r="T20" s="84"/>
+      <c r="U20" s="84"/>
+      <c r="V20" s="84"/>
+      <c r="W20" s="84"/>
+      <c r="X20" s="84"/>
+      <c r="Y20" s="84"/>
+      <c r="Z20" s="84"/>
+      <c r="AA20" s="84"/>
+      <c r="AB20" s="84"/>
+      <c r="AC20" s="84"/>
+      <c r="AD20" s="84"/>
+      <c r="AE20" s="84"/>
+      <c r="AF20" s="84"/>
+      <c r="AG20" s="84"/>
+      <c r="AH20" s="84"/>
+      <c r="AI20" s="84"/>
+      <c r="AJ20" s="84"/>
+      <c r="AK20" s="84"/>
+      <c r="AL20" s="84"/>
+      <c r="AM20" s="84"/>
+      <c r="AN20" s="84"/>
+      <c r="AO20" s="84"/>
+      <c r="AP20" s="84"/>
+      <c r="AQ20" s="84"/>
+      <c r="AR20" s="84"/>
+      <c r="AS20" s="84"/>
+      <c r="AT20" s="84"/>
+      <c r="AU20" s="84"/>
+      <c r="AV20" s="84"/>
+      <c r="AW20" s="84"/>
+      <c r="AX20" s="84"/>
+      <c r="AY20" s="85"/>
       <c r="AZ20" s="12"/>
     </row>
     <row r="21" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1">
       <c r="A21" s="9"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="73"/>
-      <c r="N21" s="73"/>
-      <c r="O21" s="73"/>
-      <c r="P21" s="74"/>
-      <c r="Q21" s="75"/>
-      <c r="R21" s="76"/>
-      <c r="S21" s="76"/>
-      <c r="T21" s="76"/>
-      <c r="U21" s="76"/>
-      <c r="V21" s="76"/>
-      <c r="W21" s="76"/>
-      <c r="X21" s="76"/>
-      <c r="Y21" s="76"/>
-      <c r="Z21" s="76"/>
-      <c r="AA21" s="76"/>
-      <c r="AB21" s="76"/>
-      <c r="AC21" s="76"/>
-      <c r="AD21" s="76"/>
-      <c r="AE21" s="76"/>
-      <c r="AF21" s="76"/>
-      <c r="AG21" s="76"/>
-      <c r="AH21" s="76"/>
-      <c r="AI21" s="76"/>
-      <c r="AJ21" s="76"/>
-      <c r="AK21" s="76"/>
-      <c r="AL21" s="76"/>
-      <c r="AM21" s="76"/>
-      <c r="AN21" s="76"/>
-      <c r="AO21" s="76"/>
-      <c r="AP21" s="76"/>
-      <c r="AQ21" s="76"/>
-      <c r="AR21" s="76"/>
-      <c r="AS21" s="76"/>
-      <c r="AT21" s="76"/>
-      <c r="AU21" s="76"/>
-      <c r="AV21" s="76"/>
-      <c r="AW21" s="76"/>
-      <c r="AX21" s="76"/>
-      <c r="AY21" s="77"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="81"/>
+      <c r="M21" s="81"/>
+      <c r="N21" s="81"/>
+      <c r="O21" s="81"/>
+      <c r="P21" s="82"/>
+      <c r="Q21" s="83"/>
+      <c r="R21" s="84"/>
+      <c r="S21" s="84"/>
+      <c r="T21" s="84"/>
+      <c r="U21" s="84"/>
+      <c r="V21" s="84"/>
+      <c r="W21" s="84"/>
+      <c r="X21" s="84"/>
+      <c r="Y21" s="84"/>
+      <c r="Z21" s="84"/>
+      <c r="AA21" s="84"/>
+      <c r="AB21" s="84"/>
+      <c r="AC21" s="84"/>
+      <c r="AD21" s="84"/>
+      <c r="AE21" s="84"/>
+      <c r="AF21" s="84"/>
+      <c r="AG21" s="84"/>
+      <c r="AH21" s="84"/>
+      <c r="AI21" s="84"/>
+      <c r="AJ21" s="84"/>
+      <c r="AK21" s="84"/>
+      <c r="AL21" s="84"/>
+      <c r="AM21" s="84"/>
+      <c r="AN21" s="84"/>
+      <c r="AO21" s="84"/>
+      <c r="AP21" s="84"/>
+      <c r="AQ21" s="84"/>
+      <c r="AR21" s="84"/>
+      <c r="AS21" s="84"/>
+      <c r="AT21" s="84"/>
+      <c r="AU21" s="84"/>
+      <c r="AV21" s="84"/>
+      <c r="AW21" s="84"/>
+      <c r="AX21" s="84"/>
+      <c r="AY21" s="85"/>
       <c r="AZ21" s="12"/>
     </row>
     <row r="22" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1">
       <c r="A22" s="9"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="74"/>
-      <c r="Q22" s="75"/>
-      <c r="R22" s="76"/>
-      <c r="S22" s="76"/>
-      <c r="T22" s="76"/>
-      <c r="U22" s="76"/>
-      <c r="V22" s="76"/>
-      <c r="W22" s="76"/>
-      <c r="X22" s="76"/>
-      <c r="Y22" s="76"/>
-      <c r="Z22" s="76"/>
-      <c r="AA22" s="76"/>
-      <c r="AB22" s="76"/>
-      <c r="AC22" s="76"/>
-      <c r="AD22" s="76"/>
-      <c r="AE22" s="76"/>
-      <c r="AF22" s="76"/>
-      <c r="AG22" s="76"/>
-      <c r="AH22" s="76"/>
-      <c r="AI22" s="76"/>
-      <c r="AJ22" s="76"/>
-      <c r="AK22" s="76"/>
-      <c r="AL22" s="76"/>
-      <c r="AM22" s="76"/>
-      <c r="AN22" s="76"/>
-      <c r="AO22" s="76"/>
-      <c r="AP22" s="76"/>
-      <c r="AQ22" s="76"/>
-      <c r="AR22" s="76"/>
-      <c r="AS22" s="76"/>
-      <c r="AT22" s="76"/>
-      <c r="AU22" s="76"/>
-      <c r="AV22" s="76"/>
-      <c r="AW22" s="76"/>
-      <c r="AX22" s="76"/>
-      <c r="AY22" s="77"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="81"/>
+      <c r="N22" s="81"/>
+      <c r="O22" s="81"/>
+      <c r="P22" s="82"/>
+      <c r="Q22" s="83"/>
+      <c r="R22" s="84"/>
+      <c r="S22" s="84"/>
+      <c r="T22" s="84"/>
+      <c r="U22" s="84"/>
+      <c r="V22" s="84"/>
+      <c r="W22" s="84"/>
+      <c r="X22" s="84"/>
+      <c r="Y22" s="84"/>
+      <c r="Z22" s="84"/>
+      <c r="AA22" s="84"/>
+      <c r="AB22" s="84"/>
+      <c r="AC22" s="84"/>
+      <c r="AD22" s="84"/>
+      <c r="AE22" s="84"/>
+      <c r="AF22" s="84"/>
+      <c r="AG22" s="84"/>
+      <c r="AH22" s="84"/>
+      <c r="AI22" s="84"/>
+      <c r="AJ22" s="84"/>
+      <c r="AK22" s="84"/>
+      <c r="AL22" s="84"/>
+      <c r="AM22" s="84"/>
+      <c r="AN22" s="84"/>
+      <c r="AO22" s="84"/>
+      <c r="AP22" s="84"/>
+      <c r="AQ22" s="84"/>
+      <c r="AR22" s="84"/>
+      <c r="AS22" s="84"/>
+      <c r="AT22" s="84"/>
+      <c r="AU22" s="84"/>
+      <c r="AV22" s="84"/>
+      <c r="AW22" s="84"/>
+      <c r="AX22" s="84"/>
+      <c r="AY22" s="85"/>
       <c r="AZ22" s="12"/>
     </row>
     <row r="23" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1">
       <c r="A23" s="9"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="73"/>
-      <c r="N23" s="73"/>
-      <c r="O23" s="73"/>
-      <c r="P23" s="74"/>
-      <c r="Q23" s="75"/>
-      <c r="R23" s="76"/>
-      <c r="S23" s="76"/>
-      <c r="T23" s="76"/>
-      <c r="U23" s="76"/>
-      <c r="V23" s="76"/>
-      <c r="W23" s="76"/>
-      <c r="X23" s="76"/>
-      <c r="Y23" s="76"/>
-      <c r="Z23" s="76"/>
-      <c r="AA23" s="76"/>
-      <c r="AB23" s="76"/>
-      <c r="AC23" s="76"/>
-      <c r="AD23" s="76"/>
-      <c r="AE23" s="76"/>
-      <c r="AF23" s="76"/>
-      <c r="AG23" s="76"/>
-      <c r="AH23" s="76"/>
-      <c r="AI23" s="76"/>
-      <c r="AJ23" s="76"/>
-      <c r="AK23" s="76"/>
-      <c r="AL23" s="76"/>
-      <c r="AM23" s="76"/>
-      <c r="AN23" s="76"/>
-      <c r="AO23" s="76"/>
-      <c r="AP23" s="76"/>
-      <c r="AQ23" s="76"/>
-      <c r="AR23" s="76"/>
-      <c r="AS23" s="76"/>
-      <c r="AT23" s="76"/>
-      <c r="AU23" s="76"/>
-      <c r="AV23" s="76"/>
-      <c r="AW23" s="76"/>
-      <c r="AX23" s="76"/>
-      <c r="AY23" s="77"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="81"/>
+      <c r="N23" s="81"/>
+      <c r="O23" s="81"/>
+      <c r="P23" s="82"/>
+      <c r="Q23" s="83"/>
+      <c r="R23" s="84"/>
+      <c r="S23" s="84"/>
+      <c r="T23" s="84"/>
+      <c r="U23" s="84"/>
+      <c r="V23" s="84"/>
+      <c r="W23" s="84"/>
+      <c r="X23" s="84"/>
+      <c r="Y23" s="84"/>
+      <c r="Z23" s="84"/>
+      <c r="AA23" s="84"/>
+      <c r="AB23" s="84"/>
+      <c r="AC23" s="84"/>
+      <c r="AD23" s="84"/>
+      <c r="AE23" s="84"/>
+      <c r="AF23" s="84"/>
+      <c r="AG23" s="84"/>
+      <c r="AH23" s="84"/>
+      <c r="AI23" s="84"/>
+      <c r="AJ23" s="84"/>
+      <c r="AK23" s="84"/>
+      <c r="AL23" s="84"/>
+      <c r="AM23" s="84"/>
+      <c r="AN23" s="84"/>
+      <c r="AO23" s="84"/>
+      <c r="AP23" s="84"/>
+      <c r="AQ23" s="84"/>
+      <c r="AR23" s="84"/>
+      <c r="AS23" s="84"/>
+      <c r="AT23" s="84"/>
+      <c r="AU23" s="84"/>
+      <c r="AV23" s="84"/>
+      <c r="AW23" s="84"/>
+      <c r="AX23" s="84"/>
+      <c r="AY23" s="85"/>
       <c r="AZ23" s="12"/>
     </row>
     <row r="24" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1">
       <c r="A24" s="9"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="73"/>
-      <c r="M24" s="73"/>
-      <c r="N24" s="73"/>
-      <c r="O24" s="73"/>
-      <c r="P24" s="74"/>
-      <c r="Q24" s="75"/>
-      <c r="R24" s="76"/>
-      <c r="S24" s="76"/>
-      <c r="T24" s="76"/>
-      <c r="U24" s="76"/>
-      <c r="V24" s="76"/>
-      <c r="W24" s="76"/>
-      <c r="X24" s="76"/>
-      <c r="Y24" s="76"/>
-      <c r="Z24" s="76"/>
-      <c r="AA24" s="76"/>
-      <c r="AB24" s="76"/>
-      <c r="AC24" s="76"/>
-      <c r="AD24" s="76"/>
-      <c r="AE24" s="76"/>
-      <c r="AF24" s="76"/>
-      <c r="AG24" s="76"/>
-      <c r="AH24" s="76"/>
-      <c r="AI24" s="76"/>
-      <c r="AJ24" s="76"/>
-      <c r="AK24" s="76"/>
-      <c r="AL24" s="76"/>
-      <c r="AM24" s="76"/>
-      <c r="AN24" s="76"/>
-      <c r="AO24" s="76"/>
-      <c r="AP24" s="76"/>
-      <c r="AQ24" s="76"/>
-      <c r="AR24" s="76"/>
-      <c r="AS24" s="76"/>
-      <c r="AT24" s="76"/>
-      <c r="AU24" s="76"/>
-      <c r="AV24" s="76"/>
-      <c r="AW24" s="76"/>
-      <c r="AX24" s="76"/>
-      <c r="AY24" s="77"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="81"/>
+      <c r="N24" s="81"/>
+      <c r="O24" s="81"/>
+      <c r="P24" s="82"/>
+      <c r="Q24" s="83"/>
+      <c r="R24" s="84"/>
+      <c r="S24" s="84"/>
+      <c r="T24" s="84"/>
+      <c r="U24" s="84"/>
+      <c r="V24" s="84"/>
+      <c r="W24" s="84"/>
+      <c r="X24" s="84"/>
+      <c r="Y24" s="84"/>
+      <c r="Z24" s="84"/>
+      <c r="AA24" s="84"/>
+      <c r="AB24" s="84"/>
+      <c r="AC24" s="84"/>
+      <c r="AD24" s="84"/>
+      <c r="AE24" s="84"/>
+      <c r="AF24" s="84"/>
+      <c r="AG24" s="84"/>
+      <c r="AH24" s="84"/>
+      <c r="AI24" s="84"/>
+      <c r="AJ24" s="84"/>
+      <c r="AK24" s="84"/>
+      <c r="AL24" s="84"/>
+      <c r="AM24" s="84"/>
+      <c r="AN24" s="84"/>
+      <c r="AO24" s="84"/>
+      <c r="AP24" s="84"/>
+      <c r="AQ24" s="84"/>
+      <c r="AR24" s="84"/>
+      <c r="AS24" s="84"/>
+      <c r="AT24" s="84"/>
+      <c r="AU24" s="84"/>
+      <c r="AV24" s="84"/>
+      <c r="AW24" s="84"/>
+      <c r="AX24" s="84"/>
+      <c r="AY24" s="85"/>
       <c r="AZ24" s="12"/>
     </row>
     <row r="25" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1">
       <c r="A25" s="9"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="73"/>
-      <c r="N25" s="73"/>
-      <c r="O25" s="73"/>
-      <c r="P25" s="74"/>
-      <c r="Q25" s="75"/>
-      <c r="R25" s="76"/>
-      <c r="S25" s="76"/>
-      <c r="T25" s="76"/>
-      <c r="U25" s="76"/>
-      <c r="V25" s="76"/>
-      <c r="W25" s="76"/>
-      <c r="X25" s="76"/>
-      <c r="Y25" s="76"/>
-      <c r="Z25" s="76"/>
-      <c r="AA25" s="76"/>
-      <c r="AB25" s="76"/>
-      <c r="AC25" s="76"/>
-      <c r="AD25" s="76"/>
-      <c r="AE25" s="76"/>
-      <c r="AF25" s="76"/>
-      <c r="AG25" s="76"/>
-      <c r="AH25" s="76"/>
-      <c r="AI25" s="76"/>
-      <c r="AJ25" s="76"/>
-      <c r="AK25" s="76"/>
-      <c r="AL25" s="76"/>
-      <c r="AM25" s="76"/>
-      <c r="AN25" s="76"/>
-      <c r="AO25" s="76"/>
-      <c r="AP25" s="76"/>
-      <c r="AQ25" s="76"/>
-      <c r="AR25" s="76"/>
-      <c r="AS25" s="76"/>
-      <c r="AT25" s="76"/>
-      <c r="AU25" s="76"/>
-      <c r="AV25" s="76"/>
-      <c r="AW25" s="76"/>
-      <c r="AX25" s="76"/>
-      <c r="AY25" s="77"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="81"/>
+      <c r="M25" s="81"/>
+      <c r="N25" s="81"/>
+      <c r="O25" s="81"/>
+      <c r="P25" s="82"/>
+      <c r="Q25" s="83"/>
+      <c r="R25" s="84"/>
+      <c r="S25" s="84"/>
+      <c r="T25" s="84"/>
+      <c r="U25" s="84"/>
+      <c r="V25" s="84"/>
+      <c r="W25" s="84"/>
+      <c r="X25" s="84"/>
+      <c r="Y25" s="84"/>
+      <c r="Z25" s="84"/>
+      <c r="AA25" s="84"/>
+      <c r="AB25" s="84"/>
+      <c r="AC25" s="84"/>
+      <c r="AD25" s="84"/>
+      <c r="AE25" s="84"/>
+      <c r="AF25" s="84"/>
+      <c r="AG25" s="84"/>
+      <c r="AH25" s="84"/>
+      <c r="AI25" s="84"/>
+      <c r="AJ25" s="84"/>
+      <c r="AK25" s="84"/>
+      <c r="AL25" s="84"/>
+      <c r="AM25" s="84"/>
+      <c r="AN25" s="84"/>
+      <c r="AO25" s="84"/>
+      <c r="AP25" s="84"/>
+      <c r="AQ25" s="84"/>
+      <c r="AR25" s="84"/>
+      <c r="AS25" s="84"/>
+      <c r="AT25" s="84"/>
+      <c r="AU25" s="84"/>
+      <c r="AV25" s="84"/>
+      <c r="AW25" s="84"/>
+      <c r="AX25" s="84"/>
+      <c r="AY25" s="85"/>
       <c r="AZ25" s="12"/>
     </row>
     <row r="26" spans="1:52" s="8" customFormat="1" ht="31.5" customHeight="1">
       <c r="A26" s="9"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="60"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61"/>
-      <c r="N26" s="61"/>
-      <c r="O26" s="61"/>
-      <c r="P26" s="62"/>
-      <c r="Q26" s="63"/>
-      <c r="R26" s="64"/>
-      <c r="S26" s="64"/>
-      <c r="T26" s="64"/>
-      <c r="U26" s="64"/>
-      <c r="V26" s="64"/>
-      <c r="W26" s="64"/>
-      <c r="X26" s="64"/>
-      <c r="Y26" s="64"/>
-      <c r="Z26" s="64"/>
-      <c r="AA26" s="64"/>
-      <c r="AB26" s="64"/>
-      <c r="AC26" s="64"/>
-      <c r="AD26" s="64"/>
-      <c r="AE26" s="64"/>
-      <c r="AF26" s="64"/>
-      <c r="AG26" s="64"/>
-      <c r="AH26" s="64"/>
-      <c r="AI26" s="64"/>
-      <c r="AJ26" s="64"/>
-      <c r="AK26" s="64"/>
-      <c r="AL26" s="64"/>
-      <c r="AM26" s="64"/>
-      <c r="AN26" s="64"/>
-      <c r="AO26" s="64"/>
-      <c r="AP26" s="64"/>
-      <c r="AQ26" s="64"/>
-      <c r="AR26" s="64"/>
-      <c r="AS26" s="64"/>
-      <c r="AT26" s="64"/>
-      <c r="AU26" s="64"/>
-      <c r="AV26" s="64"/>
-      <c r="AW26" s="64"/>
-      <c r="AX26" s="64"/>
-      <c r="AY26" s="65"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="69"/>
+      <c r="N26" s="69"/>
+      <c r="O26" s="69"/>
+      <c r="P26" s="70"/>
+      <c r="Q26" s="71"/>
+      <c r="R26" s="72"/>
+      <c r="S26" s="72"/>
+      <c r="T26" s="72"/>
+      <c r="U26" s="72"/>
+      <c r="V26" s="72"/>
+      <c r="W26" s="72"/>
+      <c r="X26" s="72"/>
+      <c r="Y26" s="72"/>
+      <c r="Z26" s="72"/>
+      <c r="AA26" s="72"/>
+      <c r="AB26" s="72"/>
+      <c r="AC26" s="72"/>
+      <c r="AD26" s="72"/>
+      <c r="AE26" s="72"/>
+      <c r="AF26" s="72"/>
+      <c r="AG26" s="72"/>
+      <c r="AH26" s="72"/>
+      <c r="AI26" s="72"/>
+      <c r="AJ26" s="72"/>
+      <c r="AK26" s="72"/>
+      <c r="AL26" s="72"/>
+      <c r="AM26" s="72"/>
+      <c r="AN26" s="72"/>
+      <c r="AO26" s="72"/>
+      <c r="AP26" s="72"/>
+      <c r="AQ26" s="72"/>
+      <c r="AR26" s="72"/>
+      <c r="AS26" s="72"/>
+      <c r="AT26" s="72"/>
+      <c r="AU26" s="72"/>
+      <c r="AV26" s="72"/>
+      <c r="AW26" s="72"/>
+      <c r="AX26" s="72"/>
+      <c r="AY26" s="73"/>
       <c r="AZ26" s="13"/>
     </row>
     <row r="27" spans="1:52" ht="13.5" customHeight="1">
@@ -3458,10 +3596,10 @@
   </sheetPr>
   <dimension ref="A1:BB56"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="bottomLeft" activeCell="L11" sqref="L11"/>
+      <selection pane="bottomLeft" activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5" customHeight="1"/>
@@ -3470,201 +3608,201 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" s="1" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A1" s="109" t="str">
+      <c r="A1" s="117" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>画面・機能一覧</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="98" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="113" t="str">
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="121" t="str">
         <f>設定情報!$C$2</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
-      <c r="V1" s="113"/>
-      <c r="W1" s="113"/>
-      <c r="X1" s="113"/>
-      <c r="Y1" s="113"/>
-      <c r="Z1" s="113"/>
-      <c r="AA1" s="113"/>
-      <c r="AB1" s="113"/>
-      <c r="AC1" s="113"/>
-      <c r="AD1" s="113"/>
-      <c r="AE1" s="113"/>
-      <c r="AF1" s="113"/>
-      <c r="AG1" s="98" t="s">
+      <c r="T1" s="121"/>
+      <c r="U1" s="121"/>
+      <c r="V1" s="121"/>
+      <c r="W1" s="121"/>
+      <c r="X1" s="121"/>
+      <c r="Y1" s="121"/>
+      <c r="Z1" s="121"/>
+      <c r="AA1" s="121"/>
+      <c r="AB1" s="121"/>
+      <c r="AC1" s="121"/>
+      <c r="AD1" s="121"/>
+      <c r="AE1" s="121"/>
+      <c r="AF1" s="121"/>
+      <c r="AG1" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="98"/>
-      <c r="AI1" s="98"/>
-      <c r="AJ1" s="98"/>
-      <c r="AK1" s="98"/>
-      <c r="AL1" s="98"/>
-      <c r="AM1" s="98" t="s">
+      <c r="AH1" s="106"/>
+      <c r="AI1" s="106"/>
+      <c r="AJ1" s="106"/>
+      <c r="AK1" s="106"/>
+      <c r="AL1" s="106"/>
+      <c r="AM1" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="AN1" s="98"/>
-      <c r="AO1" s="98"/>
-      <c r="AP1" s="98"/>
-      <c r="AQ1" s="98"/>
-      <c r="AR1" s="98"/>
-      <c r="AS1" s="98" t="s">
+      <c r="AN1" s="106"/>
+      <c r="AO1" s="106"/>
+      <c r="AP1" s="106"/>
+      <c r="AQ1" s="106"/>
+      <c r="AR1" s="106"/>
+      <c r="AS1" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="AT1" s="98"/>
-      <c r="AU1" s="98"/>
-      <c r="AV1" s="98"/>
-      <c r="AW1" s="98"/>
-      <c r="AX1" s="98" t="s">
+      <c r="AT1" s="106"/>
+      <c r="AU1" s="106"/>
+      <c r="AV1" s="106"/>
+      <c r="AW1" s="106"/>
+      <c r="AX1" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="AY1" s="98"/>
-      <c r="AZ1" s="114"/>
+      <c r="AY1" s="106"/>
+      <c r="AZ1" s="122"/>
     </row>
     <row r="2" spans="1:54" s="1" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A2" s="111"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="100" t="s">
+      <c r="A2" s="119"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="100"/>
-      <c r="S2" s="101" t="str">
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="109" t="str">
         <f>設定情報!$C$3</f>
         <v>月報管理システム</v>
       </c>
-      <c r="T2" s="101"/>
-      <c r="U2" s="101"/>
-      <c r="V2" s="101"/>
-      <c r="W2" s="101"/>
-      <c r="X2" s="101"/>
-      <c r="Y2" s="101"/>
-      <c r="Z2" s="101"/>
-      <c r="AA2" s="101"/>
-      <c r="AB2" s="101"/>
-      <c r="AC2" s="101"/>
-      <c r="AD2" s="101"/>
-      <c r="AE2" s="101"/>
-      <c r="AF2" s="101"/>
-      <c r="AG2" s="102">
+      <c r="T2" s="109"/>
+      <c r="U2" s="109"/>
+      <c r="V2" s="109"/>
+      <c r="W2" s="109"/>
+      <c r="X2" s="109"/>
+      <c r="Y2" s="109"/>
+      <c r="Z2" s="109"/>
+      <c r="AA2" s="109"/>
+      <c r="AB2" s="109"/>
+      <c r="AC2" s="109"/>
+      <c r="AD2" s="109"/>
+      <c r="AE2" s="109"/>
+      <c r="AF2" s="109"/>
+      <c r="AG2" s="110">
         <v>42591</v>
       </c>
-      <c r="AH2" s="102"/>
-      <c r="AI2" s="102"/>
-      <c r="AJ2" s="102"/>
-      <c r="AK2" s="102"/>
-      <c r="AL2" s="102"/>
-      <c r="AM2" s="115" t="s">
+      <c r="AH2" s="110"/>
+      <c r="AI2" s="110"/>
+      <c r="AJ2" s="110"/>
+      <c r="AK2" s="110"/>
+      <c r="AL2" s="110"/>
+      <c r="AM2" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="AN2" s="101"/>
-      <c r="AO2" s="101"/>
-      <c r="AP2" s="101"/>
-      <c r="AQ2" s="101"/>
-      <c r="AR2" s="101"/>
-      <c r="AS2" s="105"/>
-      <c r="AT2" s="105"/>
-      <c r="AU2" s="105"/>
-      <c r="AV2" s="105"/>
-      <c r="AW2" s="105"/>
-      <c r="AX2" s="101"/>
-      <c r="AY2" s="101"/>
-      <c r="AZ2" s="107"/>
+      <c r="AN2" s="109"/>
+      <c r="AO2" s="109"/>
+      <c r="AP2" s="109"/>
+      <c r="AQ2" s="109"/>
+      <c r="AR2" s="109"/>
+      <c r="AS2" s="113"/>
+      <c r="AT2" s="113"/>
+      <c r="AU2" s="113"/>
+      <c r="AV2" s="113"/>
+      <c r="AW2" s="113"/>
+      <c r="AX2" s="109"/>
+      <c r="AY2" s="109"/>
+      <c r="AZ2" s="115"/>
     </row>
     <row r="3" spans="1:54" s="1" customFormat="1" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="91" t="str">
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="99" t="str">
         <f>設定情報!$C$4</f>
         <v>-</v>
       </c>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="90" t="s">
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="91" t="str">
+      <c r="O3" s="98"/>
+      <c r="P3" s="98"/>
+      <c r="Q3" s="98"/>
+      <c r="R3" s="98"/>
+      <c r="S3" s="99" t="str">
         <f>設定情報!$C$5</f>
         <v>画面／機能一覧</v>
       </c>
-      <c r="T3" s="91"/>
-      <c r="U3" s="91"/>
-      <c r="V3" s="91"/>
-      <c r="W3" s="91"/>
-      <c r="X3" s="91"/>
-      <c r="Y3" s="91"/>
-      <c r="Z3" s="91"/>
-      <c r="AA3" s="91"/>
-      <c r="AB3" s="91"/>
-      <c r="AC3" s="91"/>
-      <c r="AD3" s="91"/>
-      <c r="AE3" s="91"/>
-      <c r="AF3" s="91"/>
-      <c r="AG3" s="103"/>
-      <c r="AH3" s="103"/>
-      <c r="AI3" s="103"/>
-      <c r="AJ3" s="103"/>
-      <c r="AK3" s="103"/>
-      <c r="AL3" s="103"/>
-      <c r="AM3" s="91"/>
-      <c r="AN3" s="91"/>
-      <c r="AO3" s="91"/>
-      <c r="AP3" s="91"/>
-      <c r="AQ3" s="91"/>
-      <c r="AR3" s="91"/>
-      <c r="AS3" s="106"/>
-      <c r="AT3" s="106"/>
-      <c r="AU3" s="106"/>
-      <c r="AV3" s="106"/>
-      <c r="AW3" s="106"/>
-      <c r="AX3" s="91"/>
-      <c r="AY3" s="91"/>
-      <c r="AZ3" s="108"/>
+      <c r="T3" s="99"/>
+      <c r="U3" s="99"/>
+      <c r="V3" s="99"/>
+      <c r="W3" s="99"/>
+      <c r="X3" s="99"/>
+      <c r="Y3" s="99"/>
+      <c r="Z3" s="99"/>
+      <c r="AA3" s="99"/>
+      <c r="AB3" s="99"/>
+      <c r="AC3" s="99"/>
+      <c r="AD3" s="99"/>
+      <c r="AE3" s="99"/>
+      <c r="AF3" s="99"/>
+      <c r="AG3" s="111"/>
+      <c r="AH3" s="111"/>
+      <c r="AI3" s="111"/>
+      <c r="AJ3" s="111"/>
+      <c r="AK3" s="111"/>
+      <c r="AL3" s="111"/>
+      <c r="AM3" s="99"/>
+      <c r="AN3" s="99"/>
+      <c r="AO3" s="99"/>
+      <c r="AP3" s="99"/>
+      <c r="AQ3" s="99"/>
+      <c r="AR3" s="99"/>
+      <c r="AS3" s="114"/>
+      <c r="AT3" s="114"/>
+      <c r="AU3" s="114"/>
+      <c r="AV3" s="114"/>
+      <c r="AW3" s="114"/>
+      <c r="AX3" s="99"/>
+      <c r="AY3" s="99"/>
+      <c r="AZ3" s="116"/>
     </row>
     <row r="4" spans="1:54" s="21" customFormat="1" ht="13.5" customHeight="1">
       <c r="A4" s="27" t="s">
@@ -3703,15 +3841,17 @@
       <c r="X4" s="31"/>
       <c r="Y4" s="31"/>
       <c r="Z4" s="31"/>
-      <c r="AA4" s="30" t="s">
+      <c r="AA4" s="59" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="60"/>
+      <c r="AE4" s="60"/>
+      <c r="AF4" s="61"/>
+      <c r="AG4" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="31"/>
       <c r="AH4" s="31"/>
       <c r="AI4" s="31"/>
       <c r="AJ4" s="31"/>
@@ -3761,13 +3901,19 @@
       <c r="X5" s="35"/>
       <c r="Y5" s="35"/>
       <c r="Z5" s="35"/>
-      <c r="AA5" s="34"/>
+      <c r="AA5" s="34" t="s">
+        <v>60</v>
+      </c>
       <c r="AB5" s="35"/>
-      <c r="AC5" s="35"/>
-      <c r="AD5" s="35"/>
-      <c r="AE5" s="35"/>
+      <c r="AC5" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD5" s="58"/>
+      <c r="AE5" s="35" t="s">
+        <v>61</v>
+      </c>
       <c r="AF5" s="35"/>
-      <c r="AG5" s="35"/>
+      <c r="AG5" s="34"/>
       <c r="AH5" s="35"/>
       <c r="AI5" s="35"/>
       <c r="AJ5" s="35"/>
@@ -3819,11 +3965,11 @@
       <c r="Z6" s="39"/>
       <c r="AA6" s="38"/>
       <c r="AB6" s="39"/>
-      <c r="AC6" s="39"/>
-      <c r="AD6" s="39"/>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="54"/>
       <c r="AE6" s="39"/>
       <c r="AF6" s="39"/>
-      <c r="AG6" s="39"/>
+      <c r="AG6" s="38"/>
       <c r="AH6" s="39"/>
       <c r="AI6" s="39"/>
       <c r="AJ6" s="39"/>
@@ -3882,13 +4028,19 @@
       <c r="X7" s="39"/>
       <c r="Y7" s="39"/>
       <c r="Z7" s="39"/>
-      <c r="AA7" s="38"/>
+      <c r="AA7" s="38" t="s">
+        <v>63</v>
+      </c>
       <c r="AB7" s="39"/>
-      <c r="AC7" s="39"/>
-      <c r="AD7" s="39"/>
-      <c r="AE7" s="39"/>
+      <c r="AC7" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD7" s="54"/>
+      <c r="AE7" s="39" t="s">
+        <v>63</v>
+      </c>
       <c r="AF7" s="39"/>
-      <c r="AG7" s="39"/>
+      <c r="AG7" s="38"/>
       <c r="AH7" s="39"/>
       <c r="AI7" s="39"/>
       <c r="AJ7" s="39"/>
@@ -3947,13 +4099,19 @@
       <c r="X8" s="44"/>
       <c r="Y8" s="44"/>
       <c r="Z8" s="44"/>
-      <c r="AA8" s="46"/>
+      <c r="AA8" s="46" t="s">
+        <v>63</v>
+      </c>
       <c r="AB8" s="44"/>
-      <c r="AC8" s="44"/>
-      <c r="AD8" s="44"/>
-      <c r="AE8" s="44"/>
+      <c r="AC8" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD8" s="55"/>
+      <c r="AE8" s="44" t="s">
+        <v>63</v>
+      </c>
       <c r="AF8" s="44"/>
-      <c r="AG8" s="44"/>
+      <c r="AG8" s="46"/>
       <c r="AH8" s="44"/>
       <c r="AI8" s="44"/>
       <c r="AJ8" s="44"/>
@@ -4012,13 +4170,19 @@
       <c r="X9" s="44"/>
       <c r="Y9" s="44"/>
       <c r="Z9" s="44"/>
-      <c r="AA9" s="46"/>
+      <c r="AA9" s="46" t="s">
+        <v>64</v>
+      </c>
       <c r="AB9" s="44"/>
-      <c r="AC9" s="44"/>
-      <c r="AD9" s="44"/>
-      <c r="AE9" s="44"/>
+      <c r="AC9" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD9" s="55"/>
+      <c r="AE9" s="44" t="s">
+        <v>63</v>
+      </c>
       <c r="AF9" s="44"/>
-      <c r="AG9" s="44"/>
+      <c r="AG9" s="46"/>
       <c r="AH9" s="44"/>
       <c r="AI9" s="44"/>
       <c r="AJ9" s="44"/>
@@ -4077,13 +4241,19 @@
       <c r="X10" s="44"/>
       <c r="Y10" s="44"/>
       <c r="Z10" s="44"/>
-      <c r="AA10" s="46"/>
+      <c r="AA10" s="46" t="s">
+        <v>64</v>
+      </c>
       <c r="AB10" s="44"/>
-      <c r="AC10" s="44"/>
-      <c r="AD10" s="44"/>
-      <c r="AE10" s="44"/>
+      <c r="AC10" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD10" s="55"/>
+      <c r="AE10" s="44" t="s">
+        <v>63</v>
+      </c>
       <c r="AF10" s="44"/>
-      <c r="AG10" s="44"/>
+      <c r="AG10" s="46"/>
       <c r="AH10" s="44"/>
       <c r="AI10" s="44"/>
       <c r="AJ10" s="44"/>
@@ -4142,13 +4312,19 @@
       <c r="X11" s="44"/>
       <c r="Y11" s="44"/>
       <c r="Z11" s="44"/>
-      <c r="AA11" s="46"/>
+      <c r="AA11" s="46" t="s">
+        <v>63</v>
+      </c>
       <c r="AB11" s="44"/>
-      <c r="AC11" s="44"/>
-      <c r="AD11" s="44"/>
-      <c r="AE11" s="44"/>
+      <c r="AC11" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD11" s="55"/>
+      <c r="AE11" s="44" t="s">
+        <v>63</v>
+      </c>
       <c r="AF11" s="44"/>
-      <c r="AG11" s="44"/>
+      <c r="AG11" s="46"/>
       <c r="AH11" s="44"/>
       <c r="AI11" s="44"/>
       <c r="AJ11" s="44"/>
@@ -4207,13 +4383,19 @@
       <c r="X12" s="44"/>
       <c r="Y12" s="44"/>
       <c r="Z12" s="44"/>
-      <c r="AA12" s="46"/>
+      <c r="AA12" s="46" t="s">
+        <v>64</v>
+      </c>
       <c r="AB12" s="44"/>
-      <c r="AC12" s="44"/>
-      <c r="AD12" s="44"/>
-      <c r="AE12" s="44"/>
+      <c r="AC12" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD12" s="55"/>
+      <c r="AE12" s="44" t="s">
+        <v>63</v>
+      </c>
       <c r="AF12" s="44"/>
-      <c r="AG12" s="44"/>
+      <c r="AG12" s="46"/>
       <c r="AH12" s="44"/>
       <c r="AI12" s="44"/>
       <c r="AJ12" s="44"/>
@@ -4272,13 +4454,19 @@
       <c r="X13" s="44"/>
       <c r="Y13" s="44"/>
       <c r="Z13" s="44"/>
-      <c r="AA13" s="46"/>
+      <c r="AA13" s="46" t="s">
+        <v>63</v>
+      </c>
       <c r="AB13" s="44"/>
-      <c r="AC13" s="44"/>
-      <c r="AD13" s="44"/>
-      <c r="AE13" s="44"/>
+      <c r="AC13" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD13" s="55"/>
+      <c r="AE13" s="46" t="s">
+        <v>64</v>
+      </c>
       <c r="AF13" s="44"/>
-      <c r="AG13" s="44"/>
+      <c r="AG13" s="46"/>
       <c r="AH13" s="44"/>
       <c r="AI13" s="44"/>
       <c r="AJ13" s="44"/>
@@ -4337,13 +4525,19 @@
       <c r="X14" s="44"/>
       <c r="Y14" s="44"/>
       <c r="Z14" s="44"/>
-      <c r="AA14" s="46"/>
+      <c r="AA14" s="46" t="s">
+        <v>63</v>
+      </c>
       <c r="AB14" s="44"/>
-      <c r="AC14" s="44"/>
-      <c r="AD14" s="44"/>
-      <c r="AE14" s="44"/>
+      <c r="AC14" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD14" s="55"/>
+      <c r="AE14" s="46" t="s">
+        <v>64</v>
+      </c>
       <c r="AF14" s="44"/>
-      <c r="AG14" s="44"/>
+      <c r="AG14" s="46"/>
       <c r="AH14" s="44"/>
       <c r="AI14" s="44"/>
       <c r="AJ14" s="44"/>
@@ -4402,13 +4596,19 @@
       <c r="X15" s="44"/>
       <c r="Y15" s="44"/>
       <c r="Z15" s="44"/>
-      <c r="AA15" s="46"/>
+      <c r="AA15" s="46" t="s">
+        <v>64</v>
+      </c>
       <c r="AB15" s="44"/>
-      <c r="AC15" s="44"/>
-      <c r="AD15" s="44"/>
-      <c r="AE15" s="44"/>
+      <c r="AC15" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD15" s="55"/>
+      <c r="AE15" s="46" t="s">
+        <v>64</v>
+      </c>
       <c r="AF15" s="44"/>
-      <c r="AG15" s="44"/>
+      <c r="AG15" s="46"/>
       <c r="AH15" s="44"/>
       <c r="AI15" s="44"/>
       <c r="AJ15" s="44"/>
@@ -4467,13 +4667,19 @@
       <c r="X16" s="44"/>
       <c r="Y16" s="44"/>
       <c r="Z16" s="44"/>
-      <c r="AA16" s="46"/>
+      <c r="AA16" s="46" t="s">
+        <v>64</v>
+      </c>
       <c r="AB16" s="44"/>
-      <c r="AC16" s="44"/>
-      <c r="AD16" s="44"/>
-      <c r="AE16" s="44"/>
+      <c r="AC16" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD16" s="55"/>
+      <c r="AE16" s="46" t="s">
+        <v>64</v>
+      </c>
       <c r="AF16" s="44"/>
-      <c r="AG16" s="44"/>
+      <c r="AG16" s="46"/>
       <c r="AH16" s="44"/>
       <c r="AI16" s="44"/>
       <c r="AJ16" s="44"/>
@@ -4532,13 +4738,19 @@
       <c r="X17" s="44"/>
       <c r="Y17" s="44"/>
       <c r="Z17" s="44"/>
-      <c r="AA17" s="46"/>
+      <c r="AA17" s="46" t="s">
+        <v>64</v>
+      </c>
       <c r="AB17" s="44"/>
-      <c r="AC17" s="44"/>
-      <c r="AD17" s="44"/>
-      <c r="AE17" s="44"/>
+      <c r="AC17" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD17" s="55"/>
+      <c r="AE17" s="46" t="s">
+        <v>64</v>
+      </c>
       <c r="AF17" s="44"/>
-      <c r="AG17" s="44"/>
+      <c r="AG17" s="46"/>
       <c r="AH17" s="44"/>
       <c r="AI17" s="44"/>
       <c r="AJ17" s="44"/>
@@ -4591,11 +4803,11 @@
       <c r="Z18" s="44"/>
       <c r="AA18" s="46"/>
       <c r="AB18" s="44"/>
-      <c r="AC18" s="44"/>
-      <c r="AD18" s="44"/>
+      <c r="AC18" s="46"/>
+      <c r="AD18" s="55"/>
       <c r="AE18" s="44"/>
       <c r="AF18" s="44"/>
-      <c r="AG18" s="44"/>
+      <c r="AG18" s="46"/>
       <c r="AH18" s="44"/>
       <c r="AI18" s="44"/>
       <c r="AJ18" s="44"/>
@@ -4648,11 +4860,11 @@
       <c r="Z19" s="44"/>
       <c r="AA19" s="46"/>
       <c r="AB19" s="44"/>
-      <c r="AC19" s="44"/>
-      <c r="AD19" s="44"/>
+      <c r="AC19" s="46"/>
+      <c r="AD19" s="55"/>
       <c r="AE19" s="44"/>
       <c r="AF19" s="44"/>
-      <c r="AG19" s="44"/>
+      <c r="AG19" s="46"/>
       <c r="AH19" s="44"/>
       <c r="AI19" s="44"/>
       <c r="AJ19" s="44"/>
@@ -4705,11 +4917,11 @@
       <c r="Z20" s="44"/>
       <c r="AA20" s="46"/>
       <c r="AB20" s="44"/>
-      <c r="AC20" s="44"/>
-      <c r="AD20" s="44"/>
+      <c r="AC20" s="46"/>
+      <c r="AD20" s="55"/>
       <c r="AE20" s="44"/>
       <c r="AF20" s="44"/>
-      <c r="AG20" s="44"/>
+      <c r="AG20" s="46"/>
       <c r="AH20" s="44"/>
       <c r="AI20" s="44"/>
       <c r="AJ20" s="44"/>
@@ -4762,11 +4974,11 @@
       <c r="Z21" s="44"/>
       <c r="AA21" s="46"/>
       <c r="AB21" s="44"/>
-      <c r="AC21" s="44"/>
-      <c r="AD21" s="44"/>
+      <c r="AC21" s="46"/>
+      <c r="AD21" s="55"/>
       <c r="AE21" s="44"/>
       <c r="AF21" s="44"/>
-      <c r="AG21" s="44"/>
+      <c r="AG21" s="46"/>
       <c r="AH21" s="44"/>
       <c r="AI21" s="44"/>
       <c r="AJ21" s="44"/>
@@ -4819,11 +5031,11 @@
       <c r="Z22" s="48"/>
       <c r="AA22" s="43"/>
       <c r="AB22" s="48"/>
-      <c r="AC22" s="48"/>
-      <c r="AD22" s="48"/>
+      <c r="AC22" s="43"/>
+      <c r="AD22" s="56"/>
       <c r="AE22" s="48"/>
       <c r="AF22" s="48"/>
-      <c r="AG22" s="48"/>
+      <c r="AG22" s="43"/>
       <c r="AH22" s="48"/>
       <c r="AI22" s="48"/>
       <c r="AJ22" s="48"/>
@@ -4877,11 +5089,11 @@
       <c r="Z23" s="44"/>
       <c r="AA23" s="46"/>
       <c r="AB23" s="44"/>
-      <c r="AC23" s="44"/>
-      <c r="AD23" s="44"/>
+      <c r="AC23" s="46"/>
+      <c r="AD23" s="55"/>
       <c r="AE23" s="44"/>
       <c r="AF23" s="44"/>
-      <c r="AG23" s="44"/>
+      <c r="AG23" s="46"/>
       <c r="AH23" s="44"/>
       <c r="AI23" s="44"/>
       <c r="AJ23" s="44"/>
@@ -4934,11 +5146,11 @@
       <c r="Z24" s="44"/>
       <c r="AA24" s="46"/>
       <c r="AB24" s="44"/>
-      <c r="AC24" s="44"/>
-      <c r="AD24" s="44"/>
+      <c r="AC24" s="46"/>
+      <c r="AD24" s="55"/>
       <c r="AE24" s="44"/>
       <c r="AF24" s="44"/>
-      <c r="AG24" s="44"/>
+      <c r="AG24" s="46"/>
       <c r="AH24" s="44"/>
       <c r="AI24" s="44"/>
       <c r="AJ24" s="44"/>
@@ -4991,11 +5203,11 @@
       <c r="Z25" s="48"/>
       <c r="AA25" s="43"/>
       <c r="AB25" s="48"/>
-      <c r="AC25" s="48"/>
-      <c r="AD25" s="48"/>
+      <c r="AC25" s="43"/>
+      <c r="AD25" s="56"/>
       <c r="AE25" s="48"/>
       <c r="AF25" s="48"/>
-      <c r="AG25" s="48"/>
+      <c r="AG25" s="43"/>
       <c r="AH25" s="48"/>
       <c r="AI25" s="48"/>
       <c r="AJ25" s="48"/>
@@ -5049,11 +5261,11 @@
       <c r="Z26" s="48"/>
       <c r="AA26" s="43"/>
       <c r="AB26" s="48"/>
-      <c r="AC26" s="48"/>
-      <c r="AD26" s="48"/>
+      <c r="AC26" s="43"/>
+      <c r="AD26" s="56"/>
       <c r="AE26" s="48"/>
       <c r="AF26" s="48"/>
-      <c r="AG26" s="48"/>
+      <c r="AG26" s="43"/>
       <c r="AH26" s="48"/>
       <c r="AI26" s="48"/>
       <c r="AJ26" s="48"/>
@@ -5107,11 +5319,11 @@
       <c r="Z27" s="48"/>
       <c r="AA27" s="43"/>
       <c r="AB27" s="48"/>
-      <c r="AC27" s="48"/>
-      <c r="AD27" s="48"/>
+      <c r="AC27" s="43"/>
+      <c r="AD27" s="56"/>
       <c r="AE27" s="48"/>
       <c r="AF27" s="48"/>
-      <c r="AG27" s="48"/>
+      <c r="AG27" s="43"/>
       <c r="AH27" s="48"/>
       <c r="AI27" s="48"/>
       <c r="AJ27" s="48"/>
@@ -5164,11 +5376,11 @@
       <c r="Z28" s="44"/>
       <c r="AA28" s="46"/>
       <c r="AB28" s="44"/>
-      <c r="AC28" s="44"/>
-      <c r="AD28" s="44"/>
+      <c r="AC28" s="46"/>
+      <c r="AD28" s="55"/>
       <c r="AE28" s="44"/>
       <c r="AF28" s="44"/>
-      <c r="AG28" s="44"/>
+      <c r="AG28" s="46"/>
       <c r="AH28" s="44"/>
       <c r="AI28" s="44"/>
       <c r="AJ28" s="44"/>
@@ -5221,11 +5433,11 @@
       <c r="Z29" s="44"/>
       <c r="AA29" s="46"/>
       <c r="AB29" s="44"/>
-      <c r="AC29" s="44"/>
-      <c r="AD29" s="44"/>
+      <c r="AC29" s="46"/>
+      <c r="AD29" s="55"/>
       <c r="AE29" s="44"/>
       <c r="AF29" s="44"/>
-      <c r="AG29" s="44"/>
+      <c r="AG29" s="46"/>
       <c r="AH29" s="44"/>
       <c r="AI29" s="44"/>
       <c r="AJ29" s="44"/>
@@ -5278,11 +5490,11 @@
       <c r="Z30" s="44"/>
       <c r="AA30" s="46"/>
       <c r="AB30" s="44"/>
-      <c r="AC30" s="44"/>
-      <c r="AD30" s="44"/>
+      <c r="AC30" s="46"/>
+      <c r="AD30" s="55"/>
       <c r="AE30" s="44"/>
       <c r="AF30" s="44"/>
-      <c r="AG30" s="44"/>
+      <c r="AG30" s="46"/>
       <c r="AH30" s="44"/>
       <c r="AI30" s="44"/>
       <c r="AJ30" s="44"/>
@@ -5335,11 +5547,11 @@
       <c r="Z31" s="44"/>
       <c r="AA31" s="46"/>
       <c r="AB31" s="44"/>
-      <c r="AC31" s="44"/>
-      <c r="AD31" s="44"/>
+      <c r="AC31" s="46"/>
+      <c r="AD31" s="55"/>
       <c r="AE31" s="44"/>
       <c r="AF31" s="44"/>
-      <c r="AG31" s="44"/>
+      <c r="AG31" s="46"/>
       <c r="AH31" s="44"/>
       <c r="AI31" s="44"/>
       <c r="AJ31" s="44"/>
@@ -5392,11 +5604,11 @@
       <c r="Z32" s="44"/>
       <c r="AA32" s="46"/>
       <c r="AB32" s="44"/>
-      <c r="AC32" s="44"/>
-      <c r="AD32" s="44"/>
+      <c r="AC32" s="46"/>
+      <c r="AD32" s="55"/>
       <c r="AE32" s="44"/>
       <c r="AF32" s="44"/>
-      <c r="AG32" s="44"/>
+      <c r="AG32" s="46"/>
       <c r="AH32" s="44"/>
       <c r="AI32" s="44"/>
       <c r="AJ32" s="44"/>
@@ -5449,11 +5661,11 @@
       <c r="Z33" s="44"/>
       <c r="AA33" s="46"/>
       <c r="AB33" s="44"/>
-      <c r="AC33" s="44"/>
-      <c r="AD33" s="44"/>
+      <c r="AC33" s="46"/>
+      <c r="AD33" s="55"/>
       <c r="AE33" s="44"/>
       <c r="AF33" s="44"/>
-      <c r="AG33" s="44"/>
+      <c r="AG33" s="46"/>
       <c r="AH33" s="44"/>
       <c r="AI33" s="44"/>
       <c r="AJ33" s="44"/>
@@ -5506,11 +5718,11 @@
       <c r="Z34" s="44"/>
       <c r="AA34" s="46"/>
       <c r="AB34" s="44"/>
-      <c r="AC34" s="44"/>
-      <c r="AD34" s="44"/>
+      <c r="AC34" s="46"/>
+      <c r="AD34" s="55"/>
       <c r="AE34" s="44"/>
       <c r="AF34" s="44"/>
-      <c r="AG34" s="44"/>
+      <c r="AG34" s="46"/>
       <c r="AH34" s="44"/>
       <c r="AI34" s="44"/>
       <c r="AJ34" s="44"/>
@@ -5563,11 +5775,11 @@
       <c r="Z35" s="44"/>
       <c r="AA35" s="46"/>
       <c r="AB35" s="44"/>
-      <c r="AC35" s="44"/>
-      <c r="AD35" s="44"/>
+      <c r="AC35" s="46"/>
+      <c r="AD35" s="55"/>
       <c r="AE35" s="44"/>
       <c r="AF35" s="44"/>
-      <c r="AG35" s="44"/>
+      <c r="AG35" s="46"/>
       <c r="AH35" s="44"/>
       <c r="AI35" s="44"/>
       <c r="AJ35" s="44"/>
@@ -5620,11 +5832,11 @@
       <c r="Z36" s="44"/>
       <c r="AA36" s="46"/>
       <c r="AB36" s="44"/>
-      <c r="AC36" s="44"/>
-      <c r="AD36" s="44"/>
+      <c r="AC36" s="46"/>
+      <c r="AD36" s="55"/>
       <c r="AE36" s="44"/>
       <c r="AF36" s="44"/>
-      <c r="AG36" s="44"/>
+      <c r="AG36" s="46"/>
       <c r="AH36" s="44"/>
       <c r="AI36" s="44"/>
       <c r="AJ36" s="44"/>
@@ -5677,11 +5889,11 @@
       <c r="Z37" s="44"/>
       <c r="AA37" s="46"/>
       <c r="AB37" s="44"/>
-      <c r="AC37" s="44"/>
-      <c r="AD37" s="44"/>
+      <c r="AC37" s="46"/>
+      <c r="AD37" s="55"/>
       <c r="AE37" s="44"/>
       <c r="AF37" s="44"/>
-      <c r="AG37" s="44"/>
+      <c r="AG37" s="46"/>
       <c r="AH37" s="44"/>
       <c r="AI37" s="44"/>
       <c r="AJ37" s="44"/>
@@ -5734,11 +5946,11 @@
       <c r="Z38" s="44"/>
       <c r="AA38" s="46"/>
       <c r="AB38" s="44"/>
-      <c r="AC38" s="44"/>
-      <c r="AD38" s="44"/>
+      <c r="AC38" s="46"/>
+      <c r="AD38" s="55"/>
       <c r="AE38" s="44"/>
       <c r="AF38" s="44"/>
-      <c r="AG38" s="44"/>
+      <c r="AG38" s="46"/>
       <c r="AH38" s="44"/>
       <c r="AI38" s="44"/>
       <c r="AJ38" s="44"/>
@@ -5791,11 +6003,11 @@
       <c r="Z39" s="44"/>
       <c r="AA39" s="46"/>
       <c r="AB39" s="44"/>
-      <c r="AC39" s="44"/>
-      <c r="AD39" s="44"/>
+      <c r="AC39" s="46"/>
+      <c r="AD39" s="55"/>
       <c r="AE39" s="44"/>
       <c r="AF39" s="44"/>
-      <c r="AG39" s="44"/>
+      <c r="AG39" s="46"/>
       <c r="AH39" s="44"/>
       <c r="AI39" s="44"/>
       <c r="AJ39" s="44"/>
@@ -5848,11 +6060,11 @@
       <c r="Z40" s="44"/>
       <c r="AA40" s="46"/>
       <c r="AB40" s="44"/>
-      <c r="AC40" s="44"/>
-      <c r="AD40" s="44"/>
+      <c r="AC40" s="46"/>
+      <c r="AD40" s="55"/>
       <c r="AE40" s="44"/>
       <c r="AF40" s="44"/>
-      <c r="AG40" s="44"/>
+      <c r="AG40" s="46"/>
       <c r="AH40" s="44"/>
       <c r="AI40" s="44"/>
       <c r="AJ40" s="44"/>
@@ -5905,11 +6117,11 @@
       <c r="Z41" s="44"/>
       <c r="AA41" s="46"/>
       <c r="AB41" s="44"/>
-      <c r="AC41" s="44"/>
-      <c r="AD41" s="44"/>
+      <c r="AC41" s="46"/>
+      <c r="AD41" s="55"/>
       <c r="AE41" s="44"/>
       <c r="AF41" s="44"/>
-      <c r="AG41" s="44"/>
+      <c r="AG41" s="46"/>
       <c r="AH41" s="44"/>
       <c r="AI41" s="44"/>
       <c r="AJ41" s="44"/>
@@ -5962,11 +6174,11 @@
       <c r="Z42" s="44"/>
       <c r="AA42" s="46"/>
       <c r="AB42" s="44"/>
-      <c r="AC42" s="44"/>
-      <c r="AD42" s="44"/>
+      <c r="AC42" s="46"/>
+      <c r="AD42" s="55"/>
       <c r="AE42" s="44"/>
       <c r="AF42" s="44"/>
-      <c r="AG42" s="44"/>
+      <c r="AG42" s="46"/>
       <c r="AH42" s="44"/>
       <c r="AI42" s="44"/>
       <c r="AJ42" s="44"/>
@@ -6019,11 +6231,11 @@
       <c r="Z43" s="44"/>
       <c r="AA43" s="46"/>
       <c r="AB43" s="44"/>
-      <c r="AC43" s="44"/>
-      <c r="AD43" s="44"/>
+      <c r="AC43" s="46"/>
+      <c r="AD43" s="55"/>
       <c r="AE43" s="44"/>
       <c r="AF43" s="44"/>
-      <c r="AG43" s="44"/>
+      <c r="AG43" s="46"/>
       <c r="AH43" s="44"/>
       <c r="AI43" s="44"/>
       <c r="AJ43" s="44"/>
@@ -6076,11 +6288,11 @@
       <c r="Z44" s="44"/>
       <c r="AA44" s="46"/>
       <c r="AB44" s="44"/>
-      <c r="AC44" s="44"/>
-      <c r="AD44" s="44"/>
+      <c r="AC44" s="46"/>
+      <c r="AD44" s="55"/>
       <c r="AE44" s="44"/>
       <c r="AF44" s="44"/>
-      <c r="AG44" s="44"/>
+      <c r="AG44" s="46"/>
       <c r="AH44" s="44"/>
       <c r="AI44" s="44"/>
       <c r="AJ44" s="44"/>
@@ -6133,11 +6345,11 @@
       <c r="Z45" s="44"/>
       <c r="AA45" s="46"/>
       <c r="AB45" s="44"/>
-      <c r="AC45" s="44"/>
-      <c r="AD45" s="44"/>
+      <c r="AC45" s="46"/>
+      <c r="AD45" s="55"/>
       <c r="AE45" s="44"/>
       <c r="AF45" s="44"/>
-      <c r="AG45" s="44"/>
+      <c r="AG45" s="46"/>
       <c r="AH45" s="44"/>
       <c r="AI45" s="44"/>
       <c r="AJ45" s="44"/>
@@ -6190,11 +6402,11 @@
       <c r="Z46" s="48"/>
       <c r="AA46" s="43"/>
       <c r="AB46" s="48"/>
-      <c r="AC46" s="48"/>
-      <c r="AD46" s="48"/>
+      <c r="AC46" s="43"/>
+      <c r="AD46" s="56"/>
       <c r="AE46" s="48"/>
       <c r="AF46" s="48"/>
-      <c r="AG46" s="48"/>
+      <c r="AG46" s="43"/>
       <c r="AH46" s="48"/>
       <c r="AI46" s="48"/>
       <c r="AJ46" s="48"/>
@@ -6247,11 +6459,11 @@
       <c r="Z47" s="44"/>
       <c r="AA47" s="46"/>
       <c r="AB47" s="44"/>
-      <c r="AC47" s="44"/>
-      <c r="AD47" s="44"/>
+      <c r="AC47" s="46"/>
+      <c r="AD47" s="55"/>
       <c r="AE47" s="44"/>
       <c r="AF47" s="44"/>
-      <c r="AG47" s="44"/>
+      <c r="AG47" s="46"/>
       <c r="AH47" s="44"/>
       <c r="AI47" s="44"/>
       <c r="AJ47" s="44"/>
@@ -6304,11 +6516,11 @@
       <c r="Z48" s="48"/>
       <c r="AA48" s="43"/>
       <c r="AB48" s="48"/>
-      <c r="AC48" s="48"/>
-      <c r="AD48" s="48"/>
+      <c r="AC48" s="43"/>
+      <c r="AD48" s="56"/>
       <c r="AE48" s="48"/>
       <c r="AF48" s="48"/>
-      <c r="AG48" s="48"/>
+      <c r="AG48" s="43"/>
       <c r="AH48" s="48"/>
       <c r="AI48" s="48"/>
       <c r="AJ48" s="48"/>
@@ -6362,11 +6574,11 @@
       <c r="Z49" s="48"/>
       <c r="AA49" s="43"/>
       <c r="AB49" s="48"/>
-      <c r="AC49" s="48"/>
-      <c r="AD49" s="48"/>
+      <c r="AC49" s="43"/>
+      <c r="AD49" s="56"/>
       <c r="AE49" s="48"/>
       <c r="AF49" s="48"/>
-      <c r="AG49" s="48"/>
+      <c r="AG49" s="43"/>
       <c r="AH49" s="48"/>
       <c r="AI49" s="48"/>
       <c r="AJ49" s="48"/>
@@ -6420,11 +6632,11 @@
       <c r="Z50" s="48"/>
       <c r="AA50" s="43"/>
       <c r="AB50" s="48"/>
-      <c r="AC50" s="48"/>
-      <c r="AD50" s="48"/>
+      <c r="AC50" s="43"/>
+      <c r="AD50" s="56"/>
       <c r="AE50" s="48"/>
       <c r="AF50" s="48"/>
-      <c r="AG50" s="48"/>
+      <c r="AG50" s="43"/>
       <c r="AH50" s="48"/>
       <c r="AI50" s="48"/>
       <c r="AJ50" s="48"/>
@@ -6478,11 +6690,11 @@
       <c r="Z51" s="48"/>
       <c r="AA51" s="43"/>
       <c r="AB51" s="48"/>
-      <c r="AC51" s="48"/>
-      <c r="AD51" s="48"/>
+      <c r="AC51" s="43"/>
+      <c r="AD51" s="56"/>
       <c r="AE51" s="48"/>
       <c r="AF51" s="48"/>
-      <c r="AG51" s="48"/>
+      <c r="AG51" s="43"/>
       <c r="AH51" s="48"/>
       <c r="AI51" s="48"/>
       <c r="AJ51" s="48"/>
@@ -6536,11 +6748,11 @@
       <c r="Z52" s="48"/>
       <c r="AA52" s="43"/>
       <c r="AB52" s="48"/>
-      <c r="AC52" s="48"/>
-      <c r="AD52" s="48"/>
+      <c r="AC52" s="43"/>
+      <c r="AD52" s="56"/>
       <c r="AE52" s="48"/>
       <c r="AF52" s="48"/>
-      <c r="AG52" s="48"/>
+      <c r="AG52" s="43"/>
       <c r="AH52" s="48"/>
       <c r="AI52" s="48"/>
       <c r="AJ52" s="48"/>
@@ -6594,11 +6806,11 @@
       <c r="Z53" s="48"/>
       <c r="AA53" s="43"/>
       <c r="AB53" s="48"/>
-      <c r="AC53" s="48"/>
-      <c r="AD53" s="48"/>
+      <c r="AC53" s="43"/>
+      <c r="AD53" s="56"/>
       <c r="AE53" s="48"/>
       <c r="AF53" s="48"/>
-      <c r="AG53" s="48"/>
+      <c r="AG53" s="43"/>
       <c r="AH53" s="48"/>
       <c r="AI53" s="48"/>
       <c r="AJ53" s="48"/>
@@ -6652,11 +6864,11 @@
       <c r="Z54" s="48"/>
       <c r="AA54" s="43"/>
       <c r="AB54" s="48"/>
-      <c r="AC54" s="48"/>
-      <c r="AD54" s="48"/>
+      <c r="AC54" s="43"/>
+      <c r="AD54" s="56"/>
       <c r="AE54" s="48"/>
       <c r="AF54" s="48"/>
-      <c r="AG54" s="48"/>
+      <c r="AG54" s="43"/>
       <c r="AH54" s="48"/>
       <c r="AI54" s="48"/>
       <c r="AJ54" s="48"/>
@@ -6707,11 +6919,11 @@
       <c r="Z55" s="48"/>
       <c r="AA55" s="43"/>
       <c r="AB55" s="48"/>
-      <c r="AC55" s="48"/>
-      <c r="AD55" s="48"/>
+      <c r="AC55" s="43"/>
+      <c r="AD55" s="56"/>
       <c r="AE55" s="48"/>
       <c r="AF55" s="48"/>
-      <c r="AG55" s="48"/>
+      <c r="AG55" s="43"/>
       <c r="AH55" s="48"/>
       <c r="AI55" s="48"/>
       <c r="AJ55" s="48"/>
@@ -6774,11 +6986,13 @@
         <v>41</v>
       </c>
       <c r="AB56" s="51"/>
-      <c r="AC56" s="51"/>
-      <c r="AD56" s="51"/>
+      <c r="AC56" s="50"/>
+      <c r="AD56" s="57"/>
       <c r="AE56" s="51"/>
       <c r="AF56" s="51"/>
-      <c r="AG56" s="51"/>
+      <c r="AG56" s="50" t="s">
+        <v>41</v>
+      </c>
       <c r="AH56" s="51"/>
       <c r="AI56" s="52"/>
       <c r="AJ56" s="51"/>
